--- a/Vanguard EU/Vanguard-ETFs-KostenBepaling.xlsx
+++ b/Vanguard EU/Vanguard-ETFs-KostenBepaling.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsen/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard EU/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard EU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{383DE9F1-B669-4070-96E2-664D98CFDC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5195472-D3F8-4621-BD60-9D89EA0CD4B9}"/>
+  <xr:revisionPtr revIDLastSave="382" documentId="13_ncr:1_{383DE9F1-B669-4070-96E2-664D98CFDC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BB3157E-71A8-48A9-88C1-3B66E476DD6A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9345" yWindow="4290" windowWidth="28800" windowHeight="15435" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketCap" sheetId="7" r:id="rId1"/>
     <sheet name="VWRL" sheetId="13" r:id="rId2"/>
     <sheet name="VEVE" sheetId="16" r:id="rId3"/>
     <sheet name="VFEM" sheetId="17" r:id="rId4"/>
-    <sheet name="GTD" sheetId="14" r:id="rId5"/>
-    <sheet name="LeakgePerFund" sheetId="15" r:id="rId6"/>
-    <sheet name="Lending" sheetId="18" r:id="rId7"/>
+    <sheet name="VWCG" sheetId="19" r:id="rId5"/>
+    <sheet name="VGEK" sheetId="20" r:id="rId6"/>
+    <sheet name="VJPA" sheetId="21" r:id="rId7"/>
+    <sheet name="GTD" sheetId="14" r:id="rId8"/>
+    <sheet name="LeakgePerFund" sheetId="15" r:id="rId9"/>
+    <sheet name="Lending" sheetId="18" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="111">
   <si>
     <t>Dividend income</t>
   </si>
@@ -294,9 +297,6 @@
     <t>Reports 0,07% transaction costs</t>
   </si>
   <si>
-    <t>It's a bit higher now (0,05%)</t>
-  </si>
-  <si>
     <t>FTSE Emerging Index</t>
   </si>
   <si>
@@ -325,6 +325,57 @@
   </si>
   <si>
     <t>Same fund as VWCE</t>
+  </si>
+  <si>
+    <t>05-2013 started</t>
+  </si>
+  <si>
+    <t>Lended in euro's but didn’t convert to dollars!</t>
+  </si>
+  <si>
+    <t>FTSE Developed Europe UCITS ETF (EUR) Distributing (VEUR)</t>
+  </si>
+  <si>
+    <t>FTSE Developed Europe Index gross</t>
+  </si>
+  <si>
+    <t>FTSE Developed Europe Index net</t>
+  </si>
+  <si>
+    <t>FTSE Developed Asia Pacific ex Japan UCITS ETF (USD) Distributing (VAPX)</t>
+  </si>
+  <si>
+    <t>FTSE Developed Asia Pacific ex Japan Index gross</t>
+  </si>
+  <si>
+    <t>FTSE Japan UCITS ETF (USD) Distributing (VJPN)</t>
+  </si>
+  <si>
+    <t>FTSE Japan Index gross</t>
+  </si>
+  <si>
+    <t>FTSE Japan Index net</t>
+  </si>
+  <si>
+    <t>FTSE Developed Asia Pacific ex Japan Index net</t>
+  </si>
+  <si>
+    <t>2016-2020</t>
+  </si>
+  <si>
+    <t>Annual report data is a lot higher?</t>
+  </si>
+  <si>
+    <t>It's a bit lower now (0,05%)</t>
+  </si>
+  <si>
+    <t>Reports 0,03% transaction costs</t>
+  </si>
+  <si>
+    <t>Annual report data is higher</t>
+  </si>
+  <si>
+    <t>Annual report data is lower</t>
   </si>
 </sst>
 </file>
@@ -443,7 +494,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -491,13 +542,14 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Komma" xfId="2" builtinId="3"/>
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Valuta" xfId="3" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -818,22 +870,22 @@
         <v>0.89181640707290222</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C5" s="7"/>
       <c r="D5" s="6"/>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="7">
         <v>55204907</v>
@@ -845,7 +897,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="7">
         <v>7068116</v>
@@ -912,7 +964,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="5">
         <f>(C12*$D$6)+(C13*$D$7)</f>
@@ -922,7 +974,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="9">
         <f>C15-C16</f>
@@ -952,12 +1004,139 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B41DF3-38FC-48D2-A2F4-45E9F93EAE67}">
+  <dimension ref="B1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="8">
+        <f>100%-C3</f>
+        <v>0.95</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" ref="D4:F4" si="0">100%-D3</f>
+        <v>0.95</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.94</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="8">
+        <f>100%-C7</f>
+        <v>0.95</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" ref="D8" si="1">100%-D7</f>
+        <v>0.95</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" ref="E8:F8" si="2">100%-E7</f>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="2"/>
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD89FDB9-F393-4A65-BDCD-E968CF6BDA63}">
   <dimension ref="B2:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,7 +1265,7 @@
         <v>9632698</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -1261,7 +1440,7 @@
       <c r="J12" s="22"/>
       <c r="K12" s="5"/>
       <c r="N12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -1928,9 +2107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF345284-CA73-4DF5-92DD-8F9EBDED894B}">
   <dimension ref="B2:L46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2779,7 +2956,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D805E6BE-6294-49D0-8387-463ECD6DFB0D}">
   <dimension ref="B2:N46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2907,7 +3086,7 @@
         <v>4590519</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -3747,574 +3926,1217 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55271D4-8CAB-4791-86A4-56A1D92A09CA}">
-  <dimension ref="B1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEA51A6-CEA5-4113-9E88-4EE6B698AC9B}">
+  <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C1" s="27">
-        <v>2013</v>
-      </c>
-      <c r="D1" s="27">
-        <v>2014</v>
-      </c>
-      <c r="E1" s="27">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
         <v>2015</v>
       </c>
-      <c r="F1" s="27">
+      <c r="D4" s="1">
         <v>2016</v>
       </c>
-      <c r="G1" s="27">
+      <c r="E4" s="1">
         <v>2017</v>
       </c>
-      <c r="H1" s="27">
+      <c r="F4" s="1">
         <v>2018</v>
       </c>
-      <c r="I1" s="27">
+      <c r="G4" s="1">
         <v>2019</v>
       </c>
-      <c r="J1" s="27">
+      <c r="H4" s="1">
         <v>2020</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="24">
-        <v>22.82</v>
-      </c>
-      <c r="D2" s="24">
-        <v>4.28</v>
-      </c>
-      <c r="E2" s="24">
-        <v>-2.23</v>
-      </c>
-      <c r="F2" s="24">
-        <v>7.98</v>
-      </c>
-      <c r="G2" s="24">
-        <v>23.98</v>
-      </c>
-      <c r="H2" s="24">
-        <v>-9.6199999999999992</v>
-      </c>
-      <c r="I2" s="24">
-        <v>26.57</v>
-      </c>
-      <c r="J2" s="25">
-        <v>15.99</v>
-      </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="25">
-        <v>23.3</v>
-      </c>
-      <c r="D3" s="25">
-        <v>4.8</v>
-      </c>
-      <c r="E3" s="25">
-        <v>-1.7</v>
-      </c>
-      <c r="F3" s="25">
-        <v>8.6</v>
-      </c>
-      <c r="G3" s="25">
-        <v>24.6</v>
-      </c>
-      <c r="H3" s="25">
-        <v>-9.1</v>
-      </c>
-      <c r="I3" s="25">
-        <v>27.2</v>
-      </c>
-      <c r="J3" s="25">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="26">
-        <v>22.69</v>
-      </c>
-      <c r="D4" s="26">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="E4" s="26">
-        <v>-2.17</v>
-      </c>
-      <c r="F4" s="26">
+      <c r="I4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="43">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="21">
+        <v>286237679</v>
+      </c>
+      <c r="D5" s="22">
+        <v>502327318</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1113048696</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1679694691</v>
+      </c>
+      <c r="G5" s="22">
+        <v>1694765475</v>
+      </c>
+      <c r="H5" s="22">
+        <v>2009226586</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="26">
-        <v>23.97</v>
-      </c>
-      <c r="H4" s="26">
-        <v>-9.57</v>
-      </c>
-      <c r="I4" s="26">
-        <v>26.52</v>
-      </c>
-      <c r="J4" s="25">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="24">
-        <f t="shared" ref="C5:J5" si="0">C3-C2</f>
-        <v>0.48000000000000043</v>
-      </c>
-      <c r="D5" s="24">
+      <c r="C6" s="21">
+        <v>197844</v>
+      </c>
+      <c r="D6" s="22">
+        <v>500281</v>
+      </c>
+      <c r="E6" s="22">
+        <v>868002</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1747960</v>
+      </c>
+      <c r="G6" s="22">
+        <v>1927300</v>
+      </c>
+      <c r="H6" s="22">
+        <v>2030488</v>
+      </c>
+      <c r="L6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="H7" s="16">
+        <f>((114/366)*0.12%)+((252/366)*0.1%)</f>
+        <v>1.0622950819672132E-3</v>
+      </c>
+      <c r="I7" s="5">
+        <f>AVERAGE(D7:H7)</f>
+        <v>1.1724590163934424E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21">
+        <f t="shared" ref="D8" si="0">(C5+D5)/2</f>
+        <v>394282498.5</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" ref="E8" si="1">(D5+E5)/2</f>
+        <v>807688007</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" ref="F8" si="2">(E5+F5)/2</f>
+        <v>1396371693.5</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" ref="G8" si="3">(F5+G5)/2</f>
+        <v>1687230083</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" ref="H8" si="4">(G5+H5)/2</f>
+        <v>1851996030.5</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="22">
+        <f t="shared" ref="C9:H9" si="5">C6/C7</f>
+        <v>164870000</v>
+      </c>
+      <c r="D9" s="22">
+        <f t="shared" si="5"/>
+        <v>416900833.33333337</v>
+      </c>
+      <c r="E9" s="22">
+        <f t="shared" si="5"/>
+        <v>723335000.00000012</v>
+      </c>
+      <c r="F9" s="22">
+        <f t="shared" si="5"/>
+        <v>1456633333.3333335</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="5"/>
+        <v>1606083333.3333335</v>
+      </c>
+      <c r="H9" s="22">
+        <f t="shared" si="5"/>
+        <v>1911416172.8395061</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="L9" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="5"/>
+      <c r="L10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>6453840</v>
+      </c>
+      <c r="D11" s="7">
+        <v>16699948</v>
+      </c>
+      <c r="E11" s="7">
+        <v>28612288</v>
+      </c>
+      <c r="F11" s="7">
+        <v>55451908</v>
+      </c>
+      <c r="G11" s="7">
+        <v>63355725</v>
+      </c>
+      <c r="H11" s="7">
+        <v>53087528</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>449779</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1214196</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2137859</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4211322</v>
+      </c>
+      <c r="G12" s="7">
+        <v>4497447</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5016404</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="18">
+        <f t="shared" ref="C13:H13" si="6">C12/C11</f>
+        <v>6.9691687429499341E-2</v>
+      </c>
+      <c r="D13" s="18">
+        <f t="shared" si="6"/>
+        <v>7.2706573697115709E-2</v>
+      </c>
+      <c r="E13" s="18">
+        <f t="shared" si="6"/>
+        <v>7.4718211979412488E-2</v>
+      </c>
+      <c r="F13" s="18">
+        <f t="shared" si="6"/>
+        <v>7.5945484148173939E-2</v>
+      </c>
+      <c r="G13" s="18">
+        <f t="shared" si="6"/>
+        <v>7.0987223333013716E-2</v>
+      </c>
+      <c r="H13" s="18">
+        <f t="shared" si="6"/>
+        <v>9.4493079429126936E-2</v>
+      </c>
+      <c r="I13" s="5">
+        <f>AVERAGE(D13:H13)</f>
+        <v>7.7770114517368566E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="17">
+        <f t="shared" ref="C14:H14" si="7">C12/C9</f>
+        <v>2.7280827318493356E-3</v>
+      </c>
+      <c r="D14" s="17">
+        <f t="shared" si="7"/>
+        <v>2.9124336123098815E-3</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" si="7"/>
+        <v>2.9555586277450968E-3</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="7"/>
+        <v>2.8911338932241007E-3</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="7"/>
+        <v>2.8002575623929846E-3</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="7"/>
+        <v>2.6244436304773315E-3</v>
+      </c>
+      <c r="I14" s="5">
+        <f>AVERAGE(D14:H14)</f>
+        <v>2.8367654652298791E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22">
+        <v>4326489</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22">
+        <v>22002115</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="17">
+        <f>E16/E5</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="17">
+        <f>F16/F5</f>
+        <v>2.5757591681284894E-3</v>
+      </c>
+      <c r="G17" s="17">
+        <f>G16/G5</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <f>H16/H5</f>
+        <v>1.0950539452995274E-2</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22">
+        <v>89435</v>
+      </c>
+      <c r="F19" s="22">
+        <v>193993</v>
+      </c>
+      <c r="G19" s="22">
+        <v>209291</v>
+      </c>
+      <c r="H19" s="22">
+        <v>480474</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="19">
+        <f t="shared" ref="C20:H20" si="8">C19/C9</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="19">
+        <f t="shared" si="8"/>
+        <v>1.2364257225213764E-4</v>
+      </c>
+      <c r="F20" s="19">
+        <f t="shared" si="8"/>
+        <v>1.3317902011487676E-4</v>
+      </c>
+      <c r="G20" s="19">
+        <f t="shared" si="8"/>
+        <v>1.3031142012141336E-4</v>
+      </c>
+      <c r="H20" s="19">
+        <f t="shared" si="8"/>
+        <v>2.5137068882609241E-4</v>
+      </c>
+      <c r="I20" s="5">
+        <f>AVERAGE(D20:H20)</f>
+        <v>1.2770074026290402E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="21">
+        <v>422303</v>
+      </c>
+      <c r="D22" s="22">
+        <v>602163</v>
+      </c>
+      <c r="E22" s="22">
+        <v>1099868</v>
+      </c>
+      <c r="F22" s="22">
+        <v>1252501</v>
+      </c>
+      <c r="G22" s="22">
+        <v>481133</v>
+      </c>
+      <c r="H22" s="22">
+        <v>891525</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="17">
+        <f t="shared" ref="C23:H23" si="9">C22/C9</f>
+        <v>2.5614302177473162E-3</v>
+      </c>
+      <c r="D23" s="17">
+        <f t="shared" si="9"/>
+        <v>1.4443794587441856E-3</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="9"/>
+        <v>1.5205513351351722E-3</v>
+      </c>
+      <c r="F23" s="17">
+        <f t="shared" si="9"/>
+        <v>8.5986017986681605E-4</v>
+      </c>
+      <c r="G23" s="20">
+        <f t="shared" si="9"/>
+        <v>2.9956913817257301E-4</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="9"/>
+        <v>4.6642118690227161E-4</v>
+      </c>
+      <c r="I23" s="5">
+        <f>AVERAGE(D23:H23)</f>
+        <v>9.1815625976420358E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="5">
+        <f>I7+I14-I20+I23</f>
+        <v>4.799680001124621E-3</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5">
+        <f>AVERAGE(GTD!F26:J26)/100</f>
+        <v>3.7799999999999995E-3</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="5">
+        <f>C28-C27</f>
+        <v>-1.0196800011246215E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="13">
+        <f>0.1%+I14-H20+0.02%</f>
+        <v>3.7853947764037868E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L9" r:id="rId1" xr:uid="{0F590AA1-B2FE-4C50-B434-79D396F20D31}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6F59AA-9D8B-4A10-A65A-228471C4BA4F}">
+  <dimension ref="B2:L36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="21">
+        <v>95809998</v>
+      </c>
+      <c r="D5" s="22">
+        <v>123443681</v>
+      </c>
+      <c r="E5" s="22">
+        <v>256132398</v>
+      </c>
+      <c r="F5" s="22">
+        <v>353569464</v>
+      </c>
+      <c r="G5" s="22">
+        <v>391574855</v>
+      </c>
+      <c r="H5" s="22">
+        <v>578659274</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="L5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="21">
+        <v>176697</v>
+      </c>
+      <c r="D6" s="22">
+        <v>222968</v>
+      </c>
+      <c r="E6" s="22">
+        <v>394440</v>
+      </c>
+      <c r="F6" s="22">
+        <v>734028</v>
+      </c>
+      <c r="G6" s="22">
+        <v>772839</v>
+      </c>
+      <c r="H6" s="22">
+        <v>756995</v>
+      </c>
+      <c r="L6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="16">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D7" s="16">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="F7" s="16">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="G7" s="16">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="H7" s="16">
+        <f>((114/366)*0.22%)+((252/366)*0.15%)</f>
+        <v>1.7180327868852462E-3</v>
+      </c>
+      <c r="I7" s="5">
+        <f>AVERAGE(C7:H7)</f>
+        <v>2.1196721311475411E-3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21">
+        <f t="shared" ref="D8:H8" si="0">(C5+D5)/2</f>
+        <v>109626839.5</v>
+      </c>
+      <c r="E8" s="21">
         <f t="shared" si="0"/>
-        <v>0.51999999999999957</v>
-      </c>
-      <c r="E5" s="24">
+        <v>189788039.5</v>
+      </c>
+      <c r="F8" s="21">
         <f t="shared" si="0"/>
-        <v>0.53</v>
-      </c>
-      <c r="F5" s="24">
+        <v>304850931</v>
+      </c>
+      <c r="G8" s="21">
         <f t="shared" si="0"/>
-        <v>0.61999999999999922</v>
-      </c>
-      <c r="G5" s="24">
+        <v>372572159.5</v>
+      </c>
+      <c r="H8" s="21">
         <f t="shared" si="0"/>
-        <v>0.62000000000000099</v>
-      </c>
-      <c r="H5" s="24">
-        <f t="shared" si="0"/>
-        <v>0.51999999999999957</v>
-      </c>
-      <c r="I5" s="24">
-        <f t="shared" si="0"/>
-        <v>0.62999999999999901</v>
-      </c>
-      <c r="J5" s="24">
-        <f t="shared" si="0"/>
-        <v>0.61000000000000121</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="28">
-        <f>AVERAGE(C5:J5)</f>
-        <v>0.56625000000000003</v>
-      </c>
-      <c r="M5" s="29"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="24">
-        <f>C2-C4</f>
-        <v>0.12999999999999901</v>
-      </c>
-      <c r="D6" s="24">
-        <f t="shared" ref="D6:J6" si="1">D2-D4</f>
-        <v>4.9999999999999822E-2</v>
-      </c>
-      <c r="E6" s="24">
+        <v>485117064.5</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="22">
+        <f t="shared" ref="C9:H9" si="1">C6/C7</f>
+        <v>80316818.181818172</v>
+      </c>
+      <c r="D9" s="22">
         <f t="shared" si="1"/>
-        <v>-6.0000000000000053E-2</v>
-      </c>
-      <c r="F6" s="24">
+        <v>101349090.90909091</v>
+      </c>
+      <c r="E9" s="22">
         <f t="shared" si="1"/>
-        <v>-1.9999999999999574E-2</v>
-      </c>
-      <c r="G6" s="24">
+        <v>179290909.09090909</v>
+      </c>
+      <c r="F9" s="22">
         <f t="shared" si="1"/>
-        <v>1.0000000000001563E-2</v>
-      </c>
-      <c r="H6" s="24">
+        <v>333649090.90909088</v>
+      </c>
+      <c r="G9" s="22">
         <f t="shared" si="1"/>
-        <v>-4.9999999999998934E-2</v>
-      </c>
-      <c r="I6" s="24">
+        <v>351290454.5454545</v>
+      </c>
+      <c r="H9" s="22">
         <f t="shared" si="1"/>
-        <v>5.0000000000000711E-2</v>
-      </c>
-      <c r="J6" s="24">
-        <f t="shared" si="1"/>
-        <v>-2.000000000000135E-2</v>
-      </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29">
-        <f>AVERAGE(C6:J6)</f>
-        <v>1.1250000000000149E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24">
-        <v>-0.81</v>
-      </c>
-      <c r="F9" s="24">
-        <v>7.68</v>
-      </c>
-      <c r="G9" s="24">
-        <v>23.29</v>
-      </c>
-      <c r="H9" s="24">
-        <v>-9.1</v>
-      </c>
-      <c r="I9" s="24">
-        <v>27.42</v>
-      </c>
-      <c r="J9" s="24">
-        <v>16.21</v>
-      </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24">
-        <v>-0.3</v>
-      </c>
-      <c r="F10" s="24">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G10" s="24">
-        <v>23.9</v>
-      </c>
-      <c r="H10" s="24">
-        <v>-8.6</v>
-      </c>
-      <c r="I10" s="24">
-        <v>28</v>
-      </c>
-      <c r="J10" s="24">
-        <v>16.7</v>
-      </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="36"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24">
-        <v>-0.81</v>
-      </c>
-      <c r="F11" s="24">
-        <v>7.55</v>
-      </c>
-      <c r="G11" s="24">
-        <v>23.18</v>
-      </c>
-      <c r="H11" s="24">
-        <v>-9.1300000000000008</v>
-      </c>
-      <c r="I11" s="24">
-        <v>27.27</v>
-      </c>
-      <c r="J11" s="24">
-        <v>16.11</v>
-      </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24">
-        <f>E10-E9</f>
-        <v>0.51</v>
-      </c>
-      <c r="F12" s="24">
-        <f t="shared" ref="F12:J12" si="2">F10-F9</f>
-        <v>0.51999999999999957</v>
-      </c>
-      <c r="G12" s="24">
+        <v>440617318.70229</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2910412</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3697627</v>
+      </c>
+      <c r="E11" s="7">
+        <v>6020134</v>
+      </c>
+      <c r="F11" s="7">
+        <v>12310610</v>
+      </c>
+      <c r="G11" s="7">
+        <v>14080736</v>
+      </c>
+      <c r="H11" s="7">
+        <v>14853415</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>95674</v>
+      </c>
+      <c r="D12" s="7">
+        <v>135521</v>
+      </c>
+      <c r="E12" s="7">
+        <v>217184</v>
+      </c>
+      <c r="F12" s="7">
+        <v>396984</v>
+      </c>
+      <c r="G12" s="7">
+        <v>725905</v>
+      </c>
+      <c r="H12" s="7">
+        <v>642854</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="18">
+        <f t="shared" ref="C13:H13" si="2">C12/C11</f>
+        <v>3.2873009044767545E-2</v>
+      </c>
+      <c r="D13" s="18">
         <f t="shared" si="2"/>
-        <v>0.60999999999999943</v>
-      </c>
-      <c r="H12" s="24">
+        <v>3.6650803339547226E-2</v>
+      </c>
+      <c r="E13" s="18">
         <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="24">
+        <v>3.6076273385276809E-2</v>
+      </c>
+      <c r="F13" s="18">
         <f t="shared" si="2"/>
-        <v>0.57999999999999829</v>
-      </c>
-      <c r="J12" s="24">
+        <v>3.2247305373169971E-2</v>
+      </c>
+      <c r="G13" s="18">
         <f t="shared" si="2"/>
-        <v>0.48999999999999844</v>
-      </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="36">
-        <f>AVERAGE(E12:J12)</f>
-        <v>0.53499999999999925</v>
-      </c>
-      <c r="M12" s="36"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24">
-        <f>E9-E11</f>
+        <v>5.1553058021967031E-2</v>
+      </c>
+      <c r="H13" s="18">
+        <f t="shared" si="2"/>
+        <v>4.3279878734957582E-2</v>
+      </c>
+      <c r="I13" s="5">
+        <f>AVERAGE(C13:H13)</f>
+        <v>3.8780054649947694E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="17">
+        <f t="shared" ref="C14:H14" si="3">C12/C9</f>
+        <v>1.191207547383374E-3</v>
+      </c>
+      <c r="D14" s="17">
+        <f t="shared" si="3"/>
+        <v>1.3371703562843099E-3</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" si="3"/>
+        <v>1.2113497616874555E-3</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="3"/>
+        <v>1.1898249113112852E-3</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="3"/>
+        <v>2.0663954588213073E-3</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="3"/>
+        <v>1.4589848667168582E-3</v>
+      </c>
+      <c r="I14" s="5">
+        <f>AVERAGE(C14:H14)</f>
+        <v>1.409155483700765E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22">
+        <v>2168054</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22">
+        <v>5733068</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="17">
+        <f>E16/E5</f>
         <v>0</v>
       </c>
-      <c r="F13" s="24">
-        <f t="shared" ref="F13:J13" si="3">F9-F11</f>
-        <v>0.12999999999999989</v>
-      </c>
-      <c r="G13" s="24">
-        <f t="shared" si="3"/>
-        <v>0.10999999999999943</v>
-      </c>
-      <c r="H13" s="24">
-        <f t="shared" si="3"/>
-        <v>3.0000000000001137E-2</v>
-      </c>
-      <c r="I13" s="24">
-        <f t="shared" si="3"/>
-        <v>0.15000000000000213</v>
-      </c>
-      <c r="J13" s="24">
-        <f t="shared" si="3"/>
-        <v>0.10000000000000142</v>
-      </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36">
-        <f>AVERAGE(E13:J13)</f>
-        <v>8.6666666666667336E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="38">
-        <v>-3.96</v>
-      </c>
-      <c r="D16" s="38">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="E16" s="38">
-        <v>-15.51</v>
-      </c>
-      <c r="F16" s="38">
-        <v>12.76</v>
-      </c>
-      <c r="G16" s="38">
-        <v>31.89</v>
-      </c>
-      <c r="H16" s="38">
-        <v>-13.5</v>
-      </c>
-      <c r="I16" s="38">
-        <v>19.66</v>
-      </c>
-      <c r="J16" s="38">
-        <v>14.66</v>
-      </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="38">
-        <v>-3.5</v>
-      </c>
-      <c r="D17" s="38">
-        <v>1.6</v>
-      </c>
-      <c r="E17" s="38">
-        <v>-15.2</v>
-      </c>
-      <c r="F17" s="38">
-        <v>13.5</v>
-      </c>
-      <c r="G17" s="38">
-        <v>32.5</v>
-      </c>
-      <c r="H17" s="38">
-        <v>-13</v>
-      </c>
-      <c r="I17" s="38">
-        <v>20.6</v>
-      </c>
-      <c r="J17" s="38">
-        <v>15.5</v>
-      </c>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="38">
-        <v>-3.79</v>
-      </c>
-      <c r="D18" s="38">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="E18" s="38">
-        <v>-15.51</v>
-      </c>
-      <c r="F18" s="38">
-        <v>13.14</v>
-      </c>
-      <c r="G18" s="38">
-        <v>32.08</v>
-      </c>
-      <c r="H18" s="38">
-        <v>-13.34</v>
-      </c>
-      <c r="I18" s="38">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="J18" s="38">
-        <v>15.12</v>
-      </c>
-      <c r="K18" s="39"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="38">
-        <f>C17-C16</f>
-        <v>0.45999999999999996</v>
-      </c>
-      <c r="D19" s="38">
-        <f t="shared" ref="D19:J19" si="4">D17-D16</f>
-        <v>0.51</v>
-      </c>
-      <c r="E19" s="38">
+      <c r="F17" s="17">
+        <f>F16/F5</f>
+        <v>6.1319039700781404E-3</v>
+      </c>
+      <c r="G17" s="17">
+        <f>G16/G5</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <f>H16/H5</f>
+        <v>9.9075021478010564E-3</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22">
+        <v>4070</v>
+      </c>
+      <c r="F19" s="22">
+        <v>43784</v>
+      </c>
+      <c r="G19" s="22">
+        <v>81269</v>
+      </c>
+      <c r="H19" s="22">
+        <v>147489</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="19">
+        <f t="shared" ref="C20:H20" si="4">C19/C9</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="19">
         <f t="shared" si="4"/>
-        <v>0.3100000000000005</v>
-      </c>
-      <c r="F19" s="38">
+        <v>0</v>
+      </c>
+      <c r="E20" s="19">
         <f t="shared" si="4"/>
-        <v>0.74000000000000021</v>
-      </c>
-      <c r="G19" s="38">
+        <v>2.2700537470844743E-5</v>
+      </c>
+      <c r="F20" s="19">
         <f t="shared" si="4"/>
-        <v>0.60999999999999943</v>
-      </c>
-      <c r="H19" s="38">
+        <v>1.3122769158669699E-4</v>
+      </c>
+      <c r="G20" s="19">
         <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="I19" s="38">
+        <v>2.3134417388356439E-4</v>
+      </c>
+      <c r="H20" s="19">
         <f t="shared" si="4"/>
-        <v>0.94000000000000128</v>
-      </c>
-      <c r="J19" s="38">
-        <f t="shared" si="4"/>
-        <v>0.83999999999999986</v>
-      </c>
-      <c r="L19" s="39">
-        <f>AVERAGE(C19:J19)</f>
-        <v>0.61375000000000013</v>
-      </c>
-      <c r="M19" s="38"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="38">
-        <f>C16-C18</f>
-        <v>-0.16999999999999993</v>
-      </c>
-      <c r="D20" s="38">
-        <f t="shared" ref="D20:J20" si="5">D16-D18</f>
-        <v>-3.0000000000000027E-2</v>
-      </c>
-      <c r="E20" s="38">
+        <v>3.3473264381524061E-4</v>
+      </c>
+      <c r="I20" s="4">
+        <f>AVERAGE(C20:H20)</f>
+        <v>1.2000084112605779E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="21">
+        <v>57821</v>
+      </c>
+      <c r="D22" s="22">
+        <v>32497</v>
+      </c>
+      <c r="E22" s="22">
+        <v>59576</v>
+      </c>
+      <c r="F22" s="22">
+        <v>92342</v>
+      </c>
+      <c r="G22" s="22">
+        <v>59886</v>
+      </c>
+      <c r="H22" s="22">
+        <v>127784</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="17">
+        <f t="shared" ref="C23:H23" si="5">C22/C9</f>
+        <v>7.1991148689564625E-4</v>
+      </c>
+      <c r="D23" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="38">
+        <v>3.2064421800437733E-4</v>
+      </c>
+      <c r="E23" s="17">
         <f t="shared" si="5"/>
-        <v>-0.38000000000000078</v>
-      </c>
-      <c r="G20" s="38">
+        <v>3.322867863299868E-4</v>
+      </c>
+      <c r="F23" s="17">
         <f t="shared" si="5"/>
-        <v>-0.18999999999999773</v>
-      </c>
-      <c r="H20" s="38">
+        <v>2.7676382917272914E-4</v>
+      </c>
+      <c r="G23" s="20">
         <f t="shared" si="5"/>
-        <v>-0.16000000000000014</v>
-      </c>
-      <c r="I20" s="38">
+        <v>1.7047431612535083E-4</v>
+      </c>
+      <c r="H23" s="20">
         <f t="shared" si="5"/>
-        <v>-0.44000000000000128</v>
-      </c>
-      <c r="J20" s="38">
-        <f t="shared" si="5"/>
-        <v>-0.45999999999999908</v>
-      </c>
-      <c r="L20" s="38"/>
-      <c r="M20" s="39">
-        <f>AVERAGE(C20:J20)</f>
-        <v>-0.22874999999999987</v>
-      </c>
+        <v>2.9001129682407981E-4</v>
+      </c>
+      <c r="I23" s="5">
+        <f>AVERAGE(C23:H23)</f>
+        <v>3.5168198889202839E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="5">
+        <f>I7+I14-I20+I23</f>
+        <v>3.7605087626142765E-3</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5">
+        <f>AVERAGE(GTD!E33:J33)/100</f>
+        <v>3.5500000000000015E-3</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="5">
+        <f>C28-C27</f>
+        <v>-2.1050876261427499E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="13">
+        <f>0.15%+I14-H20+H23</f>
+        <v>2.8644341367096045E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4322,7 +5144,1651 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17C62D4-0311-4C15-9CAB-0AC451E6E3A5}">
+  <dimension ref="B2:L36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="21">
+        <v>590786984</v>
+      </c>
+      <c r="D5" s="22">
+        <v>722285064</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1085744450</v>
+      </c>
+      <c r="F5" s="22">
+        <v>2020467317</v>
+      </c>
+      <c r="G5" s="22">
+        <v>1829551730</v>
+      </c>
+      <c r="H5" s="22">
+        <v>1685328502</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="L5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1049432</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1383165</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1596845</v>
+      </c>
+      <c r="F6" s="22">
+        <v>3363704</v>
+      </c>
+      <c r="G6" s="22">
+        <v>3719157</v>
+      </c>
+      <c r="H6" s="22">
+        <v>2951847</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1.9E-3</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1.9E-3</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1.9E-3</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1.9E-3</v>
+      </c>
+      <c r="H7" s="16">
+        <f>((114/366)*0.19%)+((252/366)*0.15%)</f>
+        <v>1.6245901639344263E-3</v>
+      </c>
+      <c r="I7" s="5">
+        <f>AVERAGE(C7:H7)</f>
+        <v>1.8540983606557375E-3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21">
+        <f t="shared" ref="D8:H8" si="0">(C5+D5)/2</f>
+        <v>656536024</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" si="0"/>
+        <v>904014757</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="0"/>
+        <v>1553105883.5</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="0"/>
+        <v>1925009523.5</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" si="0"/>
+        <v>1757440116</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="22">
+        <f t="shared" ref="C9:H9" si="1">C6/C7</f>
+        <v>552332631.57894742</v>
+      </c>
+      <c r="D9" s="22">
+        <f t="shared" si="1"/>
+        <v>727981578.94736838</v>
+      </c>
+      <c r="E9" s="22">
+        <f t="shared" si="1"/>
+        <v>840444736.84210527</v>
+      </c>
+      <c r="F9" s="22">
+        <f t="shared" si="1"/>
+        <v>1770370526.3157895</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="1"/>
+        <v>1957451052.6315789</v>
+      </c>
+      <c r="H9" s="22">
+        <f t="shared" si="1"/>
+        <v>1816979485.3683147</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10217727</v>
+      </c>
+      <c r="D11" s="7">
+        <v>16266986</v>
+      </c>
+      <c r="E11" s="7">
+        <v>17759481</v>
+      </c>
+      <c r="F11" s="7">
+        <v>39527484</v>
+      </c>
+      <c r="G11" s="7">
+        <v>46429139</v>
+      </c>
+      <c r="H11" s="7">
+        <v>44479054</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1532098</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2439137</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2650584</v>
+      </c>
+      <c r="F12" s="7">
+        <v>5929674</v>
+      </c>
+      <c r="G12" s="7">
+        <v>6964518</v>
+      </c>
+      <c r="H12" s="7">
+        <v>6671858</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="18">
+        <f t="shared" ref="C13:H13" si="2">C12/C11</f>
+        <v>0.14994509052747251</v>
+      </c>
+      <c r="D13" s="18">
+        <f t="shared" si="2"/>
+        <v>0.14994400314846279</v>
+      </c>
+      <c r="E13" s="18">
+        <f>E12/E11</f>
+        <v>0.14924895609280475</v>
+      </c>
+      <c r="F13" s="18">
+        <f t="shared" si="2"/>
+        <v>0.15001394978744409</v>
+      </c>
+      <c r="G13" s="18">
+        <f t="shared" si="2"/>
+        <v>0.15000316934587135</v>
+      </c>
+      <c r="H13" s="18">
+        <f t="shared" si="2"/>
+        <v>0.14999999775175074</v>
+      </c>
+      <c r="I13" s="5">
+        <f>AVERAGE(C13:H13)</f>
+        <v>0.14985919444230103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="17">
+        <f t="shared" ref="C14:H14" si="3">C12/C9</f>
+        <v>2.7738683402068927E-3</v>
+      </c>
+      <c r="D14" s="17">
+        <f t="shared" si="3"/>
+        <v>3.3505476931530226E-3</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" si="3"/>
+        <v>3.153787374479051E-3</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="3"/>
+        <v>3.3493971526626599E-3</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="3"/>
+        <v>3.557952568283619E-3</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="3"/>
+        <v>3.6719500983510372E-3</v>
+      </c>
+      <c r="I14" s="5">
+        <f>AVERAGE(C14:H14)</f>
+        <v>3.3095838711893802E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22">
+        <v>4191238</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22">
+        <v>109586469</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="17">
+        <f>E16/E5</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="17">
+        <f>F16/F5</f>
+        <v>2.0743903970805977E-3</v>
+      </c>
+      <c r="G17" s="17">
+        <f>G16/G5</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <f>H16/H5</f>
+        <v>6.5023803294106994E-2</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22">
+        <v>23585</v>
+      </c>
+      <c r="F19" s="22">
+        <v>204352</v>
+      </c>
+      <c r="G19" s="22">
+        <v>191141</v>
+      </c>
+      <c r="H19" s="22">
+        <v>287610</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="19">
+        <f t="shared" ref="C20:H20" si="4">C19/C9</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="19">
+        <f t="shared" si="4"/>
+        <v>2.806252328810874E-5</v>
+      </c>
+      <c r="F20" s="19">
+        <f t="shared" si="4"/>
+        <v>1.1542894380718398E-4</v>
+      </c>
+      <c r="G20" s="19">
+        <f t="shared" si="4"/>
+        <v>9.764790784578334E-5</v>
+      </c>
+      <c r="H20" s="19">
+        <f t="shared" si="4"/>
+        <v>1.5829017460904321E-4</v>
+      </c>
+      <c r="I20" s="4">
+        <f>AVERAGE(C20:H20)</f>
+        <v>6.6571591591686537E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="21">
+        <v>85794</v>
+      </c>
+      <c r="D22" s="22">
+        <v>109651</v>
+      </c>
+      <c r="E22" s="22">
+        <v>103589</v>
+      </c>
+      <c r="F22" s="22">
+        <v>128797</v>
+      </c>
+      <c r="G22" s="22">
+        <v>90461</v>
+      </c>
+      <c r="H22" s="22">
+        <v>37218</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="17">
+        <f t="shared" ref="C23:H23" si="5">C22/C9</f>
+        <v>1.5533031201640505E-4</v>
+      </c>
+      <c r="D23" s="17">
+        <f t="shared" si="5"/>
+        <v>1.5062331681325078E-4</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="5"/>
+        <v>1.2325498091549274E-4</v>
+      </c>
+      <c r="F23" s="17">
+        <f t="shared" si="5"/>
+        <v>7.2751437106237648E-5</v>
+      </c>
+      <c r="G23" s="20">
+        <f t="shared" si="5"/>
+        <v>4.6213671539007365E-5</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="5"/>
+        <v>2.0483445355166266E-5</v>
+      </c>
+      <c r="I23" s="5">
+        <f>AVERAGE(C23:H23)</f>
+        <v>9.4776193957593302E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="5">
+        <f>I7+I14-I20+I23</f>
+        <v>5.1918868342110246E-3</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5">
+        <f>AVERAGE(GTD!E40:J40)/100</f>
+        <v>5.416666666666666E-3</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="5">
+        <f>C28-C27</f>
+        <v>2.2477983245564135E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="13">
+        <f>0.15%+I14-H20+H23</f>
+        <v>4.6717771419355026E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55271D4-8CAB-4791-86A4-56A1D92A09CA}">
+  <dimension ref="B1:M41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="67.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C1" s="27">
+        <v>2013</v>
+      </c>
+      <c r="D1" s="27">
+        <v>2014</v>
+      </c>
+      <c r="E1" s="27">
+        <v>2015</v>
+      </c>
+      <c r="F1" s="27">
+        <v>2016</v>
+      </c>
+      <c r="G1" s="27">
+        <v>2017</v>
+      </c>
+      <c r="H1" s="27">
+        <v>2018</v>
+      </c>
+      <c r="I1" s="27">
+        <v>2019</v>
+      </c>
+      <c r="J1" s="27">
+        <v>2020</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="24">
+        <v>22.82</v>
+      </c>
+      <c r="D2" s="24">
+        <v>4.28</v>
+      </c>
+      <c r="E2" s="24">
+        <v>-2.23</v>
+      </c>
+      <c r="F2" s="24">
+        <v>7.98</v>
+      </c>
+      <c r="G2" s="24">
+        <v>23.98</v>
+      </c>
+      <c r="H2" s="24">
+        <v>-9.6199999999999992</v>
+      </c>
+      <c r="I2" s="24">
+        <v>26.57</v>
+      </c>
+      <c r="J2" s="25">
+        <v>15.99</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="25">
+        <v>23.3</v>
+      </c>
+      <c r="D3" s="25">
+        <v>4.8</v>
+      </c>
+      <c r="E3" s="25">
+        <v>-1.7</v>
+      </c>
+      <c r="F3" s="25">
+        <v>8.6</v>
+      </c>
+      <c r="G3" s="25">
+        <v>24.6</v>
+      </c>
+      <c r="H3" s="25">
+        <v>-9.1</v>
+      </c>
+      <c r="I3" s="25">
+        <v>27.2</v>
+      </c>
+      <c r="J3" s="25">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="26">
+        <v>22.69</v>
+      </c>
+      <c r="D4" s="26">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E4" s="26">
+        <v>-2.17</v>
+      </c>
+      <c r="F4" s="26">
+        <v>8</v>
+      </c>
+      <c r="G4" s="26">
+        <v>23.97</v>
+      </c>
+      <c r="H4" s="26">
+        <v>-9.57</v>
+      </c>
+      <c r="I4" s="26">
+        <v>26.52</v>
+      </c>
+      <c r="J4" s="25">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="24">
+        <f t="shared" ref="C5:J5" si="0">C3-C2</f>
+        <v>0.48000000000000043</v>
+      </c>
+      <c r="D5" s="24">
+        <f t="shared" si="0"/>
+        <v>0.51999999999999957</v>
+      </c>
+      <c r="E5" s="24">
+        <f t="shared" si="0"/>
+        <v>0.53</v>
+      </c>
+      <c r="F5" s="24">
+        <f t="shared" si="0"/>
+        <v>0.61999999999999922</v>
+      </c>
+      <c r="G5" s="24">
+        <f t="shared" si="0"/>
+        <v>0.62000000000000099</v>
+      </c>
+      <c r="H5" s="24">
+        <f t="shared" si="0"/>
+        <v>0.51999999999999957</v>
+      </c>
+      <c r="I5" s="24">
+        <f t="shared" si="0"/>
+        <v>0.62999999999999901</v>
+      </c>
+      <c r="J5" s="24">
+        <f t="shared" si="0"/>
+        <v>0.61000000000000121</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="28">
+        <f>AVERAGE(C5:J5)</f>
+        <v>0.56625000000000003</v>
+      </c>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="24">
+        <f>C2-C4</f>
+        <v>0.12999999999999901</v>
+      </c>
+      <c r="D6" s="24">
+        <f t="shared" ref="D6:J6" si="1">D2-D4</f>
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="E6" s="24">
+        <f t="shared" si="1"/>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="F6" s="24">
+        <f t="shared" si="1"/>
+        <v>-1.9999999999999574E-2</v>
+      </c>
+      <c r="G6" s="24">
+        <f t="shared" si="1"/>
+        <v>1.0000000000001563E-2</v>
+      </c>
+      <c r="H6" s="24">
+        <f t="shared" si="1"/>
+        <v>-4.9999999999998934E-2</v>
+      </c>
+      <c r="I6" s="24">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="J6" s="24">
+        <f t="shared" si="1"/>
+        <v>-2.000000000000135E-2</v>
+      </c>
+      <c r="K6" s="25"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29">
+        <f>AVERAGE(C6:J6)</f>
+        <v>1.1250000000000149E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24">
+        <v>-0.81</v>
+      </c>
+      <c r="F9" s="24">
+        <v>7.68</v>
+      </c>
+      <c r="G9" s="24">
+        <v>23.29</v>
+      </c>
+      <c r="H9" s="24">
+        <v>-9.1</v>
+      </c>
+      <c r="I9" s="24">
+        <v>27.42</v>
+      </c>
+      <c r="J9" s="24">
+        <v>16.21</v>
+      </c>
+      <c r="K9" s="25"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24">
+        <v>-0.3</v>
+      </c>
+      <c r="F10" s="24">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G10" s="24">
+        <v>23.9</v>
+      </c>
+      <c r="H10" s="24">
+        <v>-8.6</v>
+      </c>
+      <c r="I10" s="24">
+        <v>28</v>
+      </c>
+      <c r="J10" s="24">
+        <v>16.7</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="36"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24">
+        <v>-0.81</v>
+      </c>
+      <c r="F11" s="24">
+        <v>7.55</v>
+      </c>
+      <c r="G11" s="24">
+        <v>23.18</v>
+      </c>
+      <c r="H11" s="24">
+        <v>-9.1300000000000008</v>
+      </c>
+      <c r="I11" s="24">
+        <v>27.27</v>
+      </c>
+      <c r="J11" s="24">
+        <v>16.11</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24">
+        <f>E10-E9</f>
+        <v>0.51</v>
+      </c>
+      <c r="F12" s="24">
+        <f t="shared" ref="F12:J12" si="2">F10-F9</f>
+        <v>0.51999999999999957</v>
+      </c>
+      <c r="G12" s="24">
+        <f t="shared" si="2"/>
+        <v>0.60999999999999943</v>
+      </c>
+      <c r="H12" s="24">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="24">
+        <f t="shared" si="2"/>
+        <v>0.57999999999999829</v>
+      </c>
+      <c r="J12" s="24">
+        <f t="shared" si="2"/>
+        <v>0.48999999999999844</v>
+      </c>
+      <c r="K12" s="25"/>
+      <c r="L12" s="36">
+        <f>AVERAGE(E12:J12)</f>
+        <v>0.53499999999999925</v>
+      </c>
+      <c r="M12" s="36"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24">
+        <f>E9-E11</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="24">
+        <f t="shared" ref="F13:J13" si="3">F9-F11</f>
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="G13" s="24">
+        <f t="shared" si="3"/>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="H13" s="24">
+        <f t="shared" si="3"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="I13" s="24">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000213</v>
+      </c>
+      <c r="J13" s="24">
+        <f t="shared" si="3"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36">
+        <f>AVERAGE(E13:J13)</f>
+        <v>8.6666666666667336E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="38">
+        <v>-3.96</v>
+      </c>
+      <c r="D16" s="38">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E16" s="38">
+        <v>-15.51</v>
+      </c>
+      <c r="F16" s="38">
+        <v>12.76</v>
+      </c>
+      <c r="G16" s="38">
+        <v>31.89</v>
+      </c>
+      <c r="H16" s="38">
+        <v>-13.5</v>
+      </c>
+      <c r="I16" s="38">
+        <v>19.66</v>
+      </c>
+      <c r="J16" s="38">
+        <v>14.66</v>
+      </c>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="38">
+        <v>-3.5</v>
+      </c>
+      <c r="D17" s="38">
+        <v>1.6</v>
+      </c>
+      <c r="E17" s="38">
+        <v>-15.2</v>
+      </c>
+      <c r="F17" s="38">
+        <v>13.5</v>
+      </c>
+      <c r="G17" s="38">
+        <v>32.5</v>
+      </c>
+      <c r="H17" s="38">
+        <v>-13</v>
+      </c>
+      <c r="I17" s="38">
+        <v>20.6</v>
+      </c>
+      <c r="J17" s="38">
+        <v>15.5</v>
+      </c>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="38">
+        <v>-3.79</v>
+      </c>
+      <c r="D18" s="38">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E18" s="38">
+        <v>-15.51</v>
+      </c>
+      <c r="F18" s="38">
+        <v>13.14</v>
+      </c>
+      <c r="G18" s="38">
+        <v>32.08</v>
+      </c>
+      <c r="H18" s="38">
+        <v>-13.34</v>
+      </c>
+      <c r="I18" s="38">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J18" s="38">
+        <v>15.12</v>
+      </c>
+      <c r="K18" s="39"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="38">
+        <f>C17-C16</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="D19" s="38">
+        <f t="shared" ref="D19:J19" si="4">D17-D16</f>
+        <v>0.51</v>
+      </c>
+      <c r="E19" s="38">
+        <f t="shared" si="4"/>
+        <v>0.3100000000000005</v>
+      </c>
+      <c r="F19" s="38">
+        <f t="shared" si="4"/>
+        <v>0.74000000000000021</v>
+      </c>
+      <c r="G19" s="38">
+        <f t="shared" si="4"/>
+        <v>0.60999999999999943</v>
+      </c>
+      <c r="H19" s="38">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="38">
+        <f t="shared" si="4"/>
+        <v>0.94000000000000128</v>
+      </c>
+      <c r="J19" s="38">
+        <f t="shared" si="4"/>
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="L19" s="39">
+        <f>AVERAGE(C19:J19)</f>
+        <v>0.61375000000000013</v>
+      </c>
+      <c r="M19" s="38"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="38">
+        <f>C16-C18</f>
+        <v>-0.16999999999999993</v>
+      </c>
+      <c r="D20" s="38">
+        <f t="shared" ref="D20:J20" si="5">D16-D18</f>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="E20" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="38">
+        <f t="shared" si="5"/>
+        <v>-0.38000000000000078</v>
+      </c>
+      <c r="G20" s="38">
+        <f t="shared" si="5"/>
+        <v>-0.18999999999999773</v>
+      </c>
+      <c r="H20" s="38">
+        <f t="shared" si="5"/>
+        <v>-0.16000000000000014</v>
+      </c>
+      <c r="I20" s="38">
+        <f t="shared" si="5"/>
+        <v>-0.44000000000000128</v>
+      </c>
+      <c r="J20" s="38">
+        <f t="shared" si="5"/>
+        <v>-0.45999999999999908</v>
+      </c>
+      <c r="L20" s="38"/>
+      <c r="M20" s="39">
+        <f>AVERAGE(C20:J20)</f>
+        <v>-0.22874999999999987</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23">
+        <v>7.16</v>
+      </c>
+      <c r="E23">
+        <v>8.93</v>
+      </c>
+      <c r="F23">
+        <v>2.76</v>
+      </c>
+      <c r="G23">
+        <v>10.73</v>
+      </c>
+      <c r="H23">
+        <v>-10.47</v>
+      </c>
+      <c r="I23">
+        <v>26.45</v>
+      </c>
+      <c r="J23">
+        <v>-2.56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24">
+        <v>7.4</v>
+      </c>
+      <c r="E24">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F24">
+        <v>3.1</v>
+      </c>
+      <c r="G24">
+        <v>11.1</v>
+      </c>
+      <c r="H24">
+        <v>-10.1</v>
+      </c>
+      <c r="I24">
+        <v>26.9</v>
+      </c>
+      <c r="J24">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25">
+        <v>6.83</v>
+      </c>
+      <c r="E25">
+        <v>8.67</v>
+      </c>
+      <c r="F25">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G25">
+        <v>10.49</v>
+      </c>
+      <c r="H25">
+        <v>-10.68</v>
+      </c>
+      <c r="I25">
+        <v>26.11</v>
+      </c>
+      <c r="J25">
+        <v>-2.71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="38">
+        <f t="shared" ref="D26:J26" si="6">D24-D23</f>
+        <v>0.24000000000000021</v>
+      </c>
+      <c r="E26" s="38">
+        <f t="shared" si="6"/>
+        <v>0.37000000000000099</v>
+      </c>
+      <c r="F26" s="38">
+        <f t="shared" si="6"/>
+        <v>0.3400000000000003</v>
+      </c>
+      <c r="G26" s="38">
+        <f t="shared" si="6"/>
+        <v>0.36999999999999922</v>
+      </c>
+      <c r="H26" s="38">
+        <f t="shared" si="6"/>
+        <v>0.37000000000000099</v>
+      </c>
+      <c r="I26" s="38">
+        <f t="shared" si="6"/>
+        <v>0.44999999999999929</v>
+      </c>
+      <c r="J26" s="38">
+        <f t="shared" si="6"/>
+        <v>0.35999999999999988</v>
+      </c>
+      <c r="L26" s="39">
+        <f>AVERAGE(D26:J26)</f>
+        <v>0.35714285714285726</v>
+      </c>
+      <c r="M26" s="38"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="38">
+        <f t="shared" ref="D27:J27" si="7">D23-D25</f>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="E27" s="38">
+        <f t="shared" si="7"/>
+        <v>0.25999999999999979</v>
+      </c>
+      <c r="F27" s="38">
+        <f t="shared" si="7"/>
+        <v>0.30999999999999961</v>
+      </c>
+      <c r="G27" s="38">
+        <f t="shared" si="7"/>
+        <v>0.24000000000000021</v>
+      </c>
+      <c r="H27" s="38">
+        <f t="shared" si="7"/>
+        <v>0.20999999999999908</v>
+      </c>
+      <c r="I27" s="38">
+        <f t="shared" si="7"/>
+        <v>0.33999999999999986</v>
+      </c>
+      <c r="J27" s="38">
+        <f t="shared" si="7"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="L27" s="38"/>
+      <c r="M27" s="39">
+        <f>AVERAGE(D27:J27)</f>
+        <v>0.26285714285714262</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30">
+        <v>-3.76</v>
+      </c>
+      <c r="E30">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="F30">
+        <v>8.49</v>
+      </c>
+      <c r="G30">
+        <v>32.21</v>
+      </c>
+      <c r="H30">
+        <v>-14.37</v>
+      </c>
+      <c r="I30">
+        <v>16.97</v>
+      </c>
+      <c r="J30">
+        <v>18.670000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>-3.2</v>
+      </c>
+      <c r="E31">
+        <v>-8</v>
+      </c>
+      <c r="F31">
+        <v>8.9</v>
+      </c>
+      <c r="G31">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="H31">
+        <v>-14</v>
+      </c>
+      <c r="I31">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J31">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32">
+        <v>-3.36</v>
+      </c>
+      <c r="E32">
+        <v>-8.17</v>
+      </c>
+      <c r="F32">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="G32">
+        <v>32.409999999999997</v>
+      </c>
+      <c r="H32">
+        <v>-14.23</v>
+      </c>
+      <c r="I32">
+        <v>17.09</v>
+      </c>
+      <c r="J32">
+        <v>18.59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38">
+        <f t="shared" ref="D33:J33" si="8">D31-D30</f>
+        <v>0.55999999999999961</v>
+      </c>
+      <c r="E33" s="38">
+        <f t="shared" si="8"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="F33" s="38">
+        <f t="shared" si="8"/>
+        <v>0.41000000000000014</v>
+      </c>
+      <c r="G33" s="38">
+        <f t="shared" si="8"/>
+        <v>0.49000000000000199</v>
+      </c>
+      <c r="H33" s="38">
+        <f t="shared" si="8"/>
+        <v>0.36999999999999922</v>
+      </c>
+      <c r="I33" s="38">
+        <f t="shared" si="8"/>
+        <v>0.42999999999999972</v>
+      </c>
+      <c r="J33" s="38">
+        <f t="shared" si="8"/>
+        <v>0.12999999999999901</v>
+      </c>
+      <c r="L33" s="39">
+        <f>AVERAGE(D33:J33)</f>
+        <v>0.38428571428571434</v>
+      </c>
+      <c r="M33" s="38"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38">
+        <f t="shared" ref="D34:J34" si="9">D30-D32</f>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="E34" s="38">
+        <f t="shared" si="9"/>
+        <v>-0.13000000000000078</v>
+      </c>
+      <c r="F34" s="38">
+        <f t="shared" si="9"/>
+        <v>-0.12999999999999901</v>
+      </c>
+      <c r="G34" s="38">
+        <f t="shared" si="9"/>
+        <v>-0.19999999999999574</v>
+      </c>
+      <c r="H34" s="38">
+        <f t="shared" si="9"/>
+        <v>-0.13999999999999879</v>
+      </c>
+      <c r="I34" s="38">
+        <f t="shared" si="9"/>
+        <v>-0.12000000000000099</v>
+      </c>
+      <c r="J34" s="38">
+        <f t="shared" si="9"/>
+        <v>8.0000000000001847E-2</v>
+      </c>
+      <c r="L34" s="38"/>
+      <c r="M34" s="39">
+        <f>AVERAGE(D34:J34)</f>
+        <v>-0.14857142857142763</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37">
+        <v>-3.91</v>
+      </c>
+      <c r="E37">
+        <v>10.59</v>
+      </c>
+      <c r="F37">
+        <v>2.29</v>
+      </c>
+      <c r="G37">
+        <v>24.71</v>
+      </c>
+      <c r="H37">
+        <v>-13.42</v>
+      </c>
+      <c r="I37">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="J37">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38">
+        <v>-3.3</v>
+      </c>
+      <c r="E38">
+        <v>11.1</v>
+      </c>
+      <c r="F38">
+        <v>2.8</v>
+      </c>
+      <c r="G38">
+        <v>25.3</v>
+      </c>
+      <c r="H38">
+        <v>-13</v>
+      </c>
+      <c r="I38">
+        <v>19.5</v>
+      </c>
+      <c r="J38">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39">
+        <v>-3.59</v>
+      </c>
+      <c r="E39">
+        <v>10.82</v>
+      </c>
+      <c r="F39">
+        <v>2.5</v>
+      </c>
+      <c r="G39">
+        <v>24.89</v>
+      </c>
+      <c r="H39">
+        <v>-13.28</v>
+      </c>
+      <c r="I39">
+        <v>19</v>
+      </c>
+      <c r="J39">
+        <v>14.19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="38">
+        <f t="shared" ref="D40:J40" si="10">D38-D37</f>
+        <v>0.61000000000000032</v>
+      </c>
+      <c r="E40" s="38">
+        <f t="shared" si="10"/>
+        <v>0.50999999999999979</v>
+      </c>
+      <c r="F40" s="38">
+        <f t="shared" si="10"/>
+        <v>0.50999999999999979</v>
+      </c>
+      <c r="G40" s="38">
+        <f t="shared" si="10"/>
+        <v>0.58999999999999986</v>
+      </c>
+      <c r="H40" s="38">
+        <f t="shared" si="10"/>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="I40" s="38">
+        <f t="shared" si="10"/>
+        <v>0.67000000000000171</v>
+      </c>
+      <c r="J40" s="38">
+        <f t="shared" si="10"/>
+        <v>0.54999999999999893</v>
+      </c>
+      <c r="L40" s="39">
+        <f>AVERAGE(D40:J40)</f>
+        <v>0.55142857142857149</v>
+      </c>
+      <c r="M40" s="38"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="38">
+        <f t="shared" ref="D41:J41" si="11">D37-D39</f>
+        <v>-0.32000000000000028</v>
+      </c>
+      <c r="E41" s="38">
+        <f t="shared" si="11"/>
+        <v>-0.23000000000000043</v>
+      </c>
+      <c r="F41" s="38">
+        <f t="shared" si="11"/>
+        <v>-0.20999999999999996</v>
+      </c>
+      <c r="G41" s="38">
+        <f t="shared" si="11"/>
+        <v>-0.17999999999999972</v>
+      </c>
+      <c r="H41" s="38">
+        <f t="shared" si="11"/>
+        <v>-0.14000000000000057</v>
+      </c>
+      <c r="I41" s="38">
+        <f t="shared" si="11"/>
+        <v>-0.17000000000000171</v>
+      </c>
+      <c r="J41" s="38">
+        <f t="shared" si="11"/>
+        <v>-0.13999999999999879</v>
+      </c>
+      <c r="L41" s="38"/>
+      <c r="M41" s="39">
+        <f>AVERAGE(D41:J41)</f>
+        <v>-0.19857142857142879</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756669C5-6D31-44B8-AA06-7A631D93EE50}">
   <dimension ref="B1:J13"/>
   <sheetViews>
@@ -4735,131 +7201,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B41DF3-38FC-48D2-A2F4-45E9F93EAE67}">
-  <dimension ref="B1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C1" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2019</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="8">
-        <f>100%-C3</f>
-        <v>0.95</v>
-      </c>
-      <c r="D4" s="8">
-        <f t="shared" ref="D4:F4" si="0">100%-D3</f>
-        <v>0.95</v>
-      </c>
-      <c r="E4" s="8">
-        <f t="shared" si="0"/>
-        <v>0.94</v>
-      </c>
-      <c r="F4" s="8">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F7" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="8">
-        <f>100%-C7</f>
-        <v>0.95</v>
-      </c>
-      <c r="D8" s="8">
-        <f t="shared" ref="D8" si="1">100%-D7</f>
-        <v>0.95</v>
-      </c>
-      <c r="E8" s="8">
-        <f t="shared" ref="E8:F8" si="2">100%-E7</f>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" si="2"/>
-        <v>0.92999999999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Vanguard EU/Vanguard-ETFs-KostenBepaling.xlsx
+++ b/Vanguard EU/Vanguard-ETFs-KostenBepaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard EU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="382" documentId="13_ncr:1_{383DE9F1-B669-4070-96E2-664D98CFDC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BB3157E-71A8-48A9-88C1-3B66E476DD6A}"/>
+  <xr:revisionPtr revIDLastSave="384" documentId="13_ncr:1_{383DE9F1-B669-4070-96E2-664D98CFDC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5C51222-8565-4581-9DBA-AAC092E2DEC4}"/>
   <bookViews>
-    <workbookView xWindow="9345" yWindow="4290" windowWidth="28800" windowHeight="15435" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15330" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketCap" sheetId="7" r:id="rId1"/>
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD89FDB9-F393-4A65-BDCD-E968CF6BDA63}">
   <dimension ref="B2:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5148,8 +5148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17C62D4-0311-4C15-9CAB-0AC451E6E3A5}">
   <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Vanguard EU/Vanguard-ETFs-KostenBepaling.xlsx
+++ b/Vanguard EU/Vanguard-ETFs-KostenBepaling.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="716" documentId="13_ncr:1_{383DE9F1-B669-4070-96E2-664D98CFDC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DF153E2-509D-4D81-8196-612650C5BB97}"/>
   <bookViews>
-    <workbookView xWindow="16395" yWindow="4470" windowWidth="21915" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16395" yWindow="4470" windowWidth="21915" windowHeight="11925" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VWRL" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="LeakgePerFund" sheetId="15" r:id="rId8"/>
     <sheet name="Lending" sheetId="18" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +35,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -322,13 +324,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000%"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="_ &quot;$&quot;\ * #,##0_ ;_ &quot;$&quot;\ * \-#,##0_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="_ &quot;$&quot;\ * #,##0_ ;_ &quot;$&quot;\ * \-#,##0_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -429,33 +431,33 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -465,26 +467,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Komma" xfId="2" builtinId="3"/>
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Valuta" xfId="3" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -764,21 +766,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD89FDB9-F393-4A65-BDCD-E968CF6BDA63}">
   <dimension ref="B2:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.47265625" customWidth="1"/>
+    <col min="3" max="3" width="13.71875" customWidth="1"/>
+    <col min="4" max="4" width="14.66015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.41015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.66015625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="16.27734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.27734375" customWidth="1"/>
+    <col min="12" max="12" width="15.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
@@ -793,7 +795,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>35</v>
       </c>
@@ -801,7 +803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C4" s="1">
         <v>2013</v>
       </c>
@@ -836,7 +838,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>27</v>
       </c>
@@ -872,7 +874,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -905,7 +907,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -939,7 +941,7 @@
         <v>2.4366803278688528E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -981,7 +983,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -1020,7 +1022,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C10" s="6"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -1035,7 +1037,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1068,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -1101,7 +1103,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -1142,7 +1144,7 @@
         <v>0.11606929673928755</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -1186,7 +1188,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -1197,7 +1199,7 @@
       <c r="K15" s="16"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>7</v>
       </c>
@@ -1225,7 +1227,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -1251,7 +1253,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -1262,7 +1264,7 @@
       <c r="K18" s="14"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>3</v>
       </c>
@@ -1285,7 +1287,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -1326,7 +1328,7 @@
         <v>6.0137454469947593E-5</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="14"/>
@@ -1337,7 +1339,7 @@
       <c r="K21" s="14"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -1368,7 +1370,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -1409,7 +1411,7 @@
         <v>4.0708539577617904E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -1420,10 +1422,10 @@
       <c r="K24" s="19"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>44</v>
       </c>
@@ -1442,7 +1444,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>5</v>
       </c>
@@ -1454,7 +1456,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>36</v>
       </c>
@@ -1463,7 +1465,7 @@
         <v>-8.0085408239961506E-6</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>37</v>
       </c>
@@ -1473,7 +1475,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>38</v>
       </c>
@@ -1482,11 +1484,11 @@
         <v>2.348277989726014E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="12"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
@@ -1495,7 +1497,7 @@
         <v>-4.3535027944906993E-4</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
@@ -1512,7 +1514,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -1539,17 +1541,17 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.47265625" customWidth="1"/>
+    <col min="3" max="3" width="16.41015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.66015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.27734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.27734375" customWidth="1"/>
+    <col min="10" max="10" width="15.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>46</v>
       </c>
@@ -1562,7 +1564,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -1570,7 +1572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C4" s="1">
         <v>2015</v>
       </c>
@@ -1599,7 +1601,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>27</v>
       </c>
@@ -1629,7 +1631,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -1658,7 +1660,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -1689,7 +1691,7 @@
         <v>1.655269320843091E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -1723,7 +1725,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -1757,7 +1759,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -1767,7 +1769,7 @@
       <c r="I10" s="21"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +1796,7 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -1821,7 +1823,7 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -1858,7 +1860,7 @@
         <v>0.12046134196008348</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -1895,7 +1897,7 @@
         <v>3.0354137417724419E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -1905,7 +1907,7 @@
       <c r="I15" s="16"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>7</v>
       </c>
@@ -1928,7 +1930,7 @@
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="16">
@@ -1953,7 +1955,7 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -1963,7 +1965,7 @@
       <c r="I18" s="14"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>3</v>
       </c>
@@ -1985,7 +1987,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -2022,7 +2024,7 @@
         <v>5.8027015994674327E-5</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -2032,7 +2034,7 @@
       <c r="I21" s="14"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -2059,7 +2061,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -2096,7 +2098,7 @@
         <v>4.6788067974905208E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -2106,10 +2108,10 @@
       <c r="I24" s="19"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J25" s="19"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>44</v>
       </c>
@@ -2127,7 +2129,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>5</v>
       </c>
@@ -2139,7 +2141,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>36</v>
       </c>
@@ -2148,7 +2150,7 @@
         <v>7.0891845058655006E-5</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>37</v>
       </c>
@@ -2157,7 +2159,7 @@
         <v>4.3758114223487578E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>38</v>
       </c>
@@ -2166,11 +2168,11 @@
         <v>1.3403976805763159E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="12"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
@@ -2179,7 +2181,7 @@
         <v>-7.2472530402115272E-4</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
@@ -2195,7 +2197,7 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -2222,19 +2224,19 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.47265625" customWidth="1"/>
+    <col min="3" max="3" width="13.71875" customWidth="1"/>
+    <col min="4" max="4" width="14.66015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.41015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.66015625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="16.27734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.27734375" customWidth="1"/>
+    <col min="12" max="12" width="15.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>48</v>
       </c>
@@ -2249,7 +2251,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>35</v>
       </c>
@@ -2257,7 +2259,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C4" s="1">
         <v>2013</v>
       </c>
@@ -2292,7 +2294,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>27</v>
       </c>
@@ -2328,7 +2330,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -2361,7 +2363,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -2396,7 +2398,7 @@
         <v>2.4950136612021862E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -2438,7 +2440,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -2480,7 +2482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C10" s="6"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -2492,7 +2494,7 @@
       <c r="K10" s="21"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -2526,7 +2528,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -2561,7 +2563,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -2602,7 +2604,7 @@
         <v>0.10210194657052958</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -2646,7 +2648,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -2657,7 +2659,7 @@
       <c r="K15" s="16"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>7</v>
       </c>
@@ -2682,7 +2684,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -2708,7 +2710,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -2719,7 +2721,7 @@
       <c r="K18" s="14"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>3</v>
       </c>
@@ -2742,7 +2744,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -2783,7 +2785,7 @@
         <v>5.9762595018045511E-5</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="14"/>
@@ -2794,7 +2796,7 @@
       <c r="K21" s="14"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -2825,7 +2827,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -2866,7 +2868,7 @@
         <v>8.1694148112696364E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -2877,10 +2879,10 @@
       <c r="K24" s="19"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>44</v>
       </c>
@@ -2899,7 +2901,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>5</v>
       </c>
@@ -2911,7 +2913,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>36</v>
       </c>
@@ -2920,7 +2922,7 @@
         <v>1.4518139322169336E-4</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>37</v>
       </c>
@@ -2930,7 +2932,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>38</v>
       </c>
@@ -2939,11 +2941,11 @@
         <v>2.5390760641266661E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="12"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
@@ -2952,7 +2954,7 @@
         <v>-7.1311648318443752E-4</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
@@ -2969,7 +2971,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -2996,17 +2998,17 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.47265625" customWidth="1"/>
+    <col min="3" max="3" width="16.41015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.66015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.27734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.27734375" customWidth="1"/>
+    <col min="10" max="10" width="15.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>14</v>
       </c>
@@ -3019,7 +3021,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>68</v>
       </c>
@@ -3027,7 +3029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C4" s="1">
         <v>2015</v>
       </c>
@@ -3056,7 +3058,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>27</v>
       </c>
@@ -3083,7 +3085,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -3112,7 +3114,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -3143,7 +3145,7 @@
         <v>1.1437158469945355E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -3177,7 +3179,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -3214,7 +3216,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -3227,7 +3229,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -3257,7 +3259,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -3284,7 +3286,7 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -3321,7 +3323,7 @@
         <v>7.7267052417639773E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -3358,7 +3360,7 @@
         <v>2.7598008912367929E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -3368,7 +3370,7 @@
       <c r="I15" s="16"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>7</v>
       </c>
@@ -3387,7 +3389,7 @@
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="16">
@@ -3412,7 +3414,7 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -3422,7 +3424,7 @@
       <c r="I18" s="14"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>3</v>
       </c>
@@ -3444,7 +3446,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -3481,7 +3483,7 @@
         <v>1.519656785018918E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -3491,7 +3493,7 @@
       <c r="I21" s="14"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -3518,7 +3520,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -3555,7 +3557,7 @@
         <v>7.8955032654593838E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -3565,7 +3567,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -3575,10 +3577,10 @@
       <c r="I25" s="16"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J26" s="19"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>44</v>
       </c>
@@ -3596,7 +3598,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>5</v>
       </c>
@@ -3608,7 +3610,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>36</v>
       </c>
@@ -3617,7 +3619,7 @@
         <v>-7.6110138627537554E-4</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
@@ -3626,19 +3628,19 @@
         <v>3.6330311819945745E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="12"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="12"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
       <c r="C35" s="12"/>
       <c r="D35" s="9"/>
@@ -3649,7 +3651,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -3676,17 +3678,17 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.47265625" customWidth="1"/>
+    <col min="3" max="3" width="16.41015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.66015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.27734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.27734375" customWidth="1"/>
+    <col min="10" max="10" width="15.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
@@ -3699,7 +3701,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>68</v>
       </c>
@@ -3707,7 +3709,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C4" s="1">
         <v>2015</v>
       </c>
@@ -3734,7 +3736,7 @@
       </c>
       <c r="M4" s="32"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>27</v>
       </c>
@@ -3764,7 +3766,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -3793,7 +3795,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -3827,7 +3829,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -3858,7 +3860,7 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -3892,7 +3894,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -3902,7 +3904,7 @@
       <c r="I10" s="16"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -3929,7 +3931,7 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -3956,7 +3958,7 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -3993,7 +3995,7 @@
         <v>4.2737667899576733E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -4030,7 +4032,7 @@
         <v>1.5159809419492607E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -4040,7 +4042,7 @@
       <c r="I15" s="16"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>7</v>
       </c>
@@ -4059,7 +4061,7 @@
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="16">
@@ -4084,7 +4086,7 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -4094,7 +4096,7 @@
       <c r="I18" s="14"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>3</v>
       </c>
@@ -4116,7 +4118,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -4153,7 +4155,7 @@
         <v>1.1711800647503882E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -4163,7 +4165,7 @@
       <c r="I21" s="14"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -4190,7 +4192,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -4227,7 +4229,7 @@
         <v>3.3678908101918311E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -4237,7 +4239,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -4247,10 +4249,10 @@
       <c r="I25" s="16"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J26" s="19"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>44</v>
       </c>
@@ -4268,7 +4270,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>5</v>
       </c>
@@ -4280,7 +4282,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>36</v>
       </c>
@@ -4289,7 +4291,7 @@
         <v>-2.1679955747701046E-4</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
@@ -4298,19 +4300,19 @@
         <v>3.1635915771624466E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="12"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="12"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
       <c r="C35" s="12"/>
       <c r="D35" s="9"/>
@@ -4321,7 +4323,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -4343,17 +4345,17 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.47265625" customWidth="1"/>
+    <col min="3" max="3" width="16.41015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.66015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.27734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.27734375" customWidth="1"/>
+    <col min="10" max="10" width="15.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
@@ -4366,7 +4368,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>68</v>
       </c>
@@ -4374,7 +4376,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C4" s="1">
         <v>2015</v>
       </c>
@@ -4401,7 +4403,7 @@
       </c>
       <c r="M4" s="32"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>27</v>
       </c>
@@ -4431,7 +4433,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -4460,7 +4462,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -4494,7 +4496,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -4525,7 +4527,7 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -4559,7 +4561,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -4569,7 +4571,7 @@
       <c r="I10" s="16"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -4596,7 +4598,7 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -4623,7 +4625,7 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -4660,7 +4662,7 @@
         <v>0.14978675053783605</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -4697,7 +4699,7 @@
         <v>3.2981364813218783E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -4707,7 +4709,7 @@
       <c r="I15" s="16"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>7</v>
       </c>
@@ -4726,7 +4728,7 @@
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="16">
@@ -4751,7 +4753,7 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -4761,7 +4763,7 @@
       <c r="I18" s="14"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>3</v>
       </c>
@@ -4783,7 +4785,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -4820,7 +4822,7 @@
         <v>7.464103053167645E-5</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -4830,7 +4832,7 @@
       <c r="I21" s="14"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -4857,7 +4859,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -4894,7 +4896,7 @@
         <v>8.7177224500316946E-5</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -4904,7 +4906,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -4914,10 +4916,10 @@
       <c r="I25" s="16"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J26" s="19"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>44</v>
       </c>
@@ -4935,7 +4937,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>5</v>
       </c>
@@ -4947,7 +4949,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>36</v>
       </c>
@@ -4956,7 +4958,7 @@
         <v>3.0248111081408648E-4</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
@@ -4965,19 +4967,19 @@
         <v>4.7166622249069203E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="12"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="12"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
       <c r="C35" s="12"/>
       <c r="D35" s="9"/>
@@ -4988,7 +4990,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -5010,12 +5012,12 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C1" s="26">
         <v>2013</v>
       </c>
@@ -5050,7 +5052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="22" t="s">
         <v>9</v>
       </c>
@@ -5085,7 +5087,7 @@
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="22" t="s">
         <v>10</v>
       </c>
@@ -5120,7 +5122,7 @@
       <c r="M3" s="24"/>
       <c r="N3" s="24"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
         <v>85</v>
       </c>
@@ -5155,7 +5157,7 @@
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="22" t="s">
         <v>11</v>
       </c>
@@ -5202,7 +5204,7 @@
       </c>
       <c r="N5" s="28"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="22" t="s">
         <v>12</v>
       </c>
@@ -5249,15 +5251,15 @@
         <v>2.2222222222223228E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="22" t="s">
         <v>56</v>
       </c>
@@ -5288,7 +5290,7 @@
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="22" t="s">
         <v>57</v>
       </c>
@@ -5319,7 +5321,7 @@
       <c r="M10" s="24"/>
       <c r="N10" s="34"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="22" t="s">
         <v>58</v>
       </c>
@@ -5350,7 +5352,7 @@
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="22" t="s">
         <v>11</v>
       </c>
@@ -5391,7 +5393,7 @@
       </c>
       <c r="N12" s="34"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="22" t="s">
         <v>12</v>
       </c>
@@ -5432,10 +5434,10 @@
         <v>9.1428571428571637E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="22"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="35" t="s">
         <v>59</v>
       </c>
@@ -5469,7 +5471,7 @@
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="35" t="s">
         <v>60</v>
       </c>
@@ -5503,7 +5505,7 @@
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="35" t="s">
         <v>61</v>
       </c>
@@ -5536,7 +5538,7 @@
       </c>
       <c r="L18" s="37"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="35" t="s">
         <v>11</v>
       </c>
@@ -5582,7 +5584,7 @@
       </c>
       <c r="N19" s="36"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="35" t="s">
         <v>12</v>
       </c>
@@ -5628,7 +5630,7 @@
         <v>-0.24999999999999989</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="35" t="s">
         <v>70</v>
       </c>
@@ -5657,7 +5659,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="35" t="s">
         <v>71</v>
       </c>
@@ -5686,7 +5688,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="35" t="s">
         <v>72</v>
       </c>
@@ -5715,7 +5717,7 @@
         <v>24.86</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="35" t="s">
         <v>11</v>
       </c>
@@ -5757,7 +5759,7 @@
       </c>
       <c r="N26" s="36"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="35" t="s">
         <v>12</v>
       </c>
@@ -5799,7 +5801,7 @@
         <v>0.2724999999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>73</v>
       </c>
@@ -5828,7 +5830,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="35" t="s">
         <v>74</v>
       </c>
@@ -5857,7 +5859,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="35" t="s">
         <v>77</v>
       </c>
@@ -5886,7 +5888,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="35" t="s">
         <v>11</v>
       </c>
@@ -5929,7 +5931,7 @@
       </c>
       <c r="N33" s="36"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
         <v>12</v>
       </c>
@@ -5972,7 +5974,7 @@
         <v>-0.15499999999999917</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="35" t="s">
         <v>75</v>
       </c>
@@ -6001,7 +6003,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
         <v>86</v>
       </c>
@@ -6030,7 +6032,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="35" t="s">
         <v>76</v>
       </c>
@@ -6059,7 +6061,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="35" t="s">
         <v>11</v>
       </c>
@@ -6101,7 +6103,7 @@
       </c>
       <c r="N40" s="36"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="35" t="s">
         <v>12</v>
       </c>
@@ -6153,14 +6155,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756669C5-6D31-44B8-AA06-7A631D93EE50}">
   <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.44921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C1" s="1">
         <v>2014</v>
       </c>
@@ -6184,7 +6188,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
@@ -6202,7 +6206,7 @@
         <v>0.12649988527311748</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
@@ -6235,7 +6239,7 @@
         <v>1.050935706103806E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
@@ -6250,7 +6254,7 @@
         <v>0.11606929673928755</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -6284,7 +6288,7 @@
         <v>0.10153822584896437</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
@@ -6318,7 +6322,7 @@
         <v>3.7177181030461866E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -6352,7 +6356,7 @@
         <v>6.9913486041356068E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -6382,7 +6386,7 @@
         <v>0.10503119455805621</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
@@ -6413,7 +6417,7 @@
         <v>0.11926992363893045</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
@@ -6447,7 +6451,7 @@
         <v>9.9260864875646629E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -6481,7 +6485,7 @@
         <v>0.14655011038392221</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
@@ -6512,7 +6516,7 @@
         <v>0.16102837641142506</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
@@ -6570,12 +6574,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C1" s="1">
         <v>2017</v>
       </c>
@@ -6592,7 +6596,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
@@ -6601,7 +6605,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>52</v>
       </c>
@@ -6621,7 +6625,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>53</v>
       </c>
@@ -6646,12 +6650,12 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
@@ -6671,7 +6675,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
@@ -6696,7 +6700,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>66</v>
       </c>

--- a/Vanguard EU/Vanguard-ETFs-KostenBepaling.xlsx
+++ b/Vanguard EU/Vanguard-ETFs-KostenBepaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard EU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="716" documentId="13_ncr:1_{383DE9F1-B669-4070-96E2-664D98CFDC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DF153E2-509D-4D81-8196-612650C5BB97}"/>
+  <xr:revisionPtr revIDLastSave="731" documentId="13_ncr:1_{383DE9F1-B669-4070-96E2-664D98CFDC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A09E681-63BE-4872-B1C8-53D1CBDF2DBA}"/>
   <bookViews>
-    <workbookView xWindow="16395" yWindow="4470" windowWidth="21915" windowHeight="11925" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VWRL" sheetId="13" r:id="rId1"/>
@@ -324,13 +324,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="_ &quot;$&quot;\ * #,##0_ ;_ &quot;$&quot;\ * \-#,##0_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="_ &quot;$&quot;\ * #,##0_ ;_ &quot;$&quot;\ * \-#,##0_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -431,33 +431,32 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -467,26 +466,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Komma" xfId="2" builtinId="3"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Valuta" xfId="3" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -499,6 +496,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -766,36 +767,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD89FDB9-F393-4A65-BDCD-E968CF6BDA63}">
   <dimension ref="B2:O39"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.47265625" customWidth="1"/>
-    <col min="3" max="3" width="13.71875" customWidth="1"/>
-    <col min="4" max="4" width="14.66015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.41015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.66015625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="16.27734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.27734375" customWidth="1"/>
-    <col min="12" max="12" width="15.46875" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>35</v>
       </c>
@@ -803,7 +804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>2013</v>
       </c>
@@ -834,39 +835,39 @@
       <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>114950407</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>474931514</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>876937458</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>937471365</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>1295979632</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>2102651548</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <v>2704960870</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="20">
         <v>5594999708</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="20">
         <v>11438295558</v>
       </c>
       <c r="L5" s="1"/>
@@ -874,313 +875,313 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="20">
+      <c r="C6" s="5"/>
+      <c r="D6" s="19">
         <v>615977</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>1698292</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>2296151</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>2711104</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>4167659</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <v>5770056</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="20">
         <v>9632698</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="20">
         <v>18625547</v>
       </c>
       <c r="O6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="14">
         <f>((114/366)*0.25%)+((252/366)*0.22%)</f>
         <v>2.29344262295082E-3</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <f>AVERAGE(D7:K7)</f>
         <v>2.4366803278688528E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="20">
+      <c r="C8" s="5"/>
+      <c r="D8" s="19">
         <f>(C5+D5)/2</f>
         <v>294940960.5</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <f t="shared" ref="E8:K8" si="0">(D5+E5)/2</f>
         <v>675934486</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <f t="shared" si="0"/>
         <v>907204411.5</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <f t="shared" si="0"/>
         <v>1116725498.5</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <f t="shared" si="0"/>
         <v>1699315590</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <f t="shared" si="0"/>
         <v>2403806209</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <f t="shared" si="0"/>
         <v>4149980289</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <f t="shared" si="0"/>
         <v>8516647633</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="3"/>
       <c r="O8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="21">
+      <c r="C9" s="5"/>
+      <c r="D9" s="20">
         <f>D6/D7</f>
         <v>246390800</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <f t="shared" ref="E9:K9" si="1">E6/E7</f>
         <v>679316800</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <f t="shared" si="1"/>
         <v>918460400</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <f t="shared" si="1"/>
         <v>1084441600</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <f t="shared" si="1"/>
         <v>1667063600</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="20">
         <f t="shared" si="1"/>
         <v>2308022400</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="20">
         <f t="shared" si="1"/>
         <v>4200104203.0021439</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="20">
         <f t="shared" si="1"/>
         <v>8466157727.272727</v>
       </c>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C10" s="6"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="4"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="3"/>
       <c r="O10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
         <v>7496554</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>17837465</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>25181502</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>28329734</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>43044701</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>64119281</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>100819368</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>174261332</v>
       </c>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
         <v>734078</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>1970630</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>3037267</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>3337917</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>5268891</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>7444601</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>12482600</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <f>20634618+171202</f>
         <v>20805820</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="3"/>
       <c r="O12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <f>D12/D11</f>
         <v>9.7922058588519476E-2</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <f t="shared" ref="E13:J13" si="2">E12/E11</f>
         <v>0.11047702125834585</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <f t="shared" si="2"/>
         <v>0.12061500541151199</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <f t="shared" si="2"/>
         <v>0.11782380307559541</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <f t="shared" si="2"/>
         <v>0.12240510161750223</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <f t="shared" si="2"/>
         <v>0.11610549719046288</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="16">
         <f t="shared" si="2"/>
         <v>0.12381152795958808</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="16">
         <f t="shared" ref="K13" si="3">K12/K11</f>
         <v>0.11939435881277437</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <f>AVERAGE(D13:K13)</f>
         <v>0.11606929673928755</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <f t="shared" ref="D14:K14" si="4">D12/D9</f>
         <v>2.9793239033275593E-3</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <f t="shared" si="4"/>
         <v>2.9008998452562927E-3</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <f t="shared" si="4"/>
         <v>3.3069112179469032E-3</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <f t="shared" si="4"/>
         <v>3.0780053070631006E-3</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <f t="shared" si="4"/>
         <v>3.1605818758204548E-3</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <f t="shared" si="4"/>
         <v>3.2255323865140995E-3</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="15">
         <f t="shared" si="4"/>
         <v>2.9719738836664353E-3</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <f t="shared" si="4"/>
         <v>2.4575280393107383E-3</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <f>AVERAGE(D14:K14)</f>
         <v>3.0100945573631977E-3</v>
       </c>
@@ -1188,341 +1189,344 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21">
+      <c r="C16" s="5"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20">
         <v>984905</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="20">
         <v>3201782</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="20">
         <v>7704750</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="20">
         <v>46764163</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="20">
         <v>54994816</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16" s="3"/>
       <c r="O16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="16">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="15">
         <f>G16/G5</f>
         <v>7.5996950544667203E-4</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="15">
         <f>H16/H5</f>
         <v>1.5227354256797665E-3</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="15">
         <f>I16/I5</f>
         <v>2.8483776181205903E-3</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="15">
         <f>J16/J5</f>
         <v>8.3582065130645752E-3</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="15">
         <f>K16/K5</f>
         <v>4.8079554966156089E-3</v>
       </c>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21">
+      <c r="C19" s="5"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20">
         <v>44238</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <v>121589</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="20">
         <v>263359</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="20">
         <v>543754</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="20">
         <v>1048130</v>
       </c>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <f t="shared" ref="D20:K20" si="5">D19/D9</f>
         <v>0</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="17">
         <f t="shared" si="5"/>
         <v>4.0793344703854958E-5</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="17">
         <f t="shared" si="5"/>
         <v>7.2936029555201135E-5</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="17">
         <f t="shared" si="5"/>
         <v>1.1410591162373468E-4</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="17">
         <f t="shared" si="5"/>
         <v>1.294620261114799E-4</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="17">
         <f t="shared" si="5"/>
         <v>1.2380232376531009E-4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="2">
         <f>AVERAGE(D20:K20)</f>
         <v>6.0137454469947593E-5</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5">
         <v>282714</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <v>332383</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <v>250041</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="20">
         <v>214668</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="20">
         <v>556031</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="20">
         <v>394506</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="20">
         <v>1569681</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="20">
         <v>2299311</v>
       </c>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <f t="shared" ref="D23:K23" si="6">D22/D9</f>
         <v>1.1474210887744186E-3</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <f t="shared" si="6"/>
         <v>4.8929012207559125E-4</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <f t="shared" si="6"/>
         <v>2.7223928217264459E-4</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="15">
         <f t="shared" si="6"/>
         <v>1.979525684001794E-4</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="15">
         <f t="shared" si="6"/>
         <v>3.335391643126273E-4</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="18">
         <f t="shared" si="6"/>
         <v>1.7092815043736145E-4</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="18">
         <f t="shared" si="6"/>
         <v>3.7372429923953455E-4</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="18">
         <f t="shared" si="6"/>
         <v>2.7158849079707569E-4</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <f>AVERAGE(D23:K23)</f>
         <v>4.0708539577617904E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L25" s="19"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <f>L7+L14-L20+L23</f>
         <v>5.7937228265382817E-3</v>
       </c>
       <c r="D26" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <f>AVERAGE(GTD!D5:J5)/100</f>
         <v>5.7857142857142855E-3</v>
       </c>
       <c r="D27" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <f>C27-C26</f>
         <v>-8.0085408239961506E-6</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I28" s="3"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <f>0.22%+L14-K20+AVERAGE(I23:K23)</f>
         <v>5.3583725470892117E-3</v>
       </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <f>C30-L14</f>
         <v>2.348277989726014E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
-      <c r="C32" s="12"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <f>C30-C26</f>
         <v>-4.3535027944906993E-4</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <f>C27+C33</f>
         <v>5.3503640062652156E-3</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1541,30 +1545,30 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.47265625" customWidth="1"/>
-    <col min="3" max="3" width="16.41015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.66015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="16.27734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.27734375" customWidth="1"/>
-    <col min="10" max="10" width="15.46875" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -1572,7 +1576,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>2015</v>
       </c>
@@ -1597,33 +1601,33 @@
       <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>36748312</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>62180178</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>110225318</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>192982164</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>350661628</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>564482029</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <v>1366292883</v>
       </c>
       <c r="J5" s="1"/>
@@ -1631,581 +1635,581 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>40773</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>85228</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>145838</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>276479</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>484895</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>570934</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <v>1141318</v>
       </c>
       <c r="M6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>1.8E-3</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>1.8E-3</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>1.8E-3</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>1.8E-3</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>1.8E-3</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <f>((114/366)*0.18%)+((252/366)*0.12%)</f>
         <v>1.3868852459016394E-3</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <f>AVERAGE(C7:I7)</f>
         <v>1.655269320843091E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19">
         <f t="shared" ref="D8:I8" si="0">(C5+D5)/2</f>
         <v>49464245</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <f t="shared" si="0"/>
         <v>86202748</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <f t="shared" si="0"/>
         <v>151603741</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <f t="shared" si="0"/>
         <v>271821896</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <f t="shared" si="0"/>
         <v>457571828.5</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <f t="shared" si="0"/>
         <v>965387456</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="3"/>
       <c r="M8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <f t="shared" ref="C9:H9" si="1">C6/C7</f>
         <v>22651666.666666668</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <f t="shared" si="1"/>
         <v>47348888.888888888</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <f t="shared" si="1"/>
         <v>81021111.111111119</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <f t="shared" si="1"/>
         <v>153599444.44444445</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <f t="shared" si="1"/>
         <v>269386111.1111111</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <f t="shared" si="1"/>
         <v>411666359.33806145</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="20">
         <f t="shared" ref="I9" si="2">I6/I7</f>
         <v>951098333.33333337</v>
       </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>572890</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>1316266</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>2129637</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>3930173</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>7446153</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>9716656</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>19286055</v>
       </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>66149</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>156844</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>255100</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>487837</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>877262</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>1250078</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>2280126</v>
       </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <f t="shared" ref="C13:H13" si="3">C12/C11</f>
         <v>0.11546544711899318</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <f t="shared" si="3"/>
         <v>0.11915828563527434</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <f t="shared" si="3"/>
         <v>0.1197856723939338</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <f t="shared" si="3"/>
         <v>0.12412608808823429</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <f t="shared" si="3"/>
         <v>0.11781412495821668</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <f t="shared" si="3"/>
         <v>0.12865310864149149</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <f t="shared" ref="I13" si="4">I12/I11</f>
         <v>0.1182266668844406</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <f>AVERAGE(C13:I13)</f>
         <v>0.12046134196008348</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <f t="shared" ref="C14:H14" si="5">C12/C9</f>
         <v>2.9202707674196157E-3</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <f t="shared" si="5"/>
         <v>3.3125170131881542E-3</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <f t="shared" si="5"/>
         <v>3.1485621031555559E-3</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <f t="shared" si="5"/>
         <v>3.1760336228067953E-3</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <f t="shared" si="5"/>
         <v>3.2565227523484465E-3</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <f t="shared" si="5"/>
         <v>3.0366289876346997E-3</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <f t="shared" ref="I14" si="6">I12/I9</f>
         <v>2.3973609458538287E-3</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <f>AVERAGE(C14:I14)</f>
         <v>3.0354137417724419E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20">
         <v>30075</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>68141</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <v>814184</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="20">
         <v>3829531</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="20">
         <v>4637977</v>
       </c>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="16">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15">
         <f>E16/E5</f>
         <v>2.728501994432894E-4</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <f>F16/F5</f>
         <v>3.5309480724861185E-4</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <f>G16/G5</f>
         <v>2.3218508527542681E-3</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="15">
         <f>H16/H5</f>
         <v>6.7841504304116647E-3</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="15">
         <f>I16/I5</f>
         <v>3.394570123073678E-3</v>
       </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20">
         <v>2526</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>7751</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <v>26354</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <v>49345</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="20">
         <v>101628</v>
       </c>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <f t="shared" ref="C20:I20" si="7">C19/C9</f>
         <v>0</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <f t="shared" si="7"/>
         <v>3.1177059476953876E-5</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="17">
         <f t="shared" si="7"/>
         <v>5.0462422100774383E-5</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="17">
         <f t="shared" si="7"/>
         <v>9.7829839449777785E-5</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="17">
         <f t="shared" si="7"/>
         <v>1.1986648624712558E-4</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="17">
         <f t="shared" si="7"/>
         <v>1.0685330468808869E-4</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <f>AVERAGE(C20:I20)</f>
         <v>5.8027015994674327E-5</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <v>34772</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="20">
         <v>16732</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>21750</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <v>43725</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="20">
         <v>80913</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="20">
         <v>117730</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="20">
         <v>235160</v>
       </c>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <f t="shared" ref="C23:I23" si="8">C22/C9</f>
         <v>1.5350746817747037E-3</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <f t="shared" si="8"/>
         <v>3.533768245177641E-4</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <f t="shared" si="8"/>
         <v>2.684485525034627E-4</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <f t="shared" si="8"/>
         <v>2.8466899836877304E-4</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="18">
         <f t="shared" si="8"/>
         <v>3.0036069664566558E-4</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="18">
         <f t="shared" si="8"/>
         <v>2.8598401916859041E-4</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="18">
         <f t="shared" si="8"/>
         <v>2.472509852644048E-4</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <f>AVERAGE(C23:I23)</f>
         <v>4.6788067974905208E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J25" s="19"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <f>J7+J14-J20+J23</f>
         <v>5.1005367263699105E-3</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E26" s="8"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="4">
-        <f>GTD!M12/100</f>
+      <c r="C27" s="3">
+        <f>GTD!O12/100</f>
         <v>5.1714285714285655E-3</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <f>C27-C26</f>
         <v>7.0891845058655006E-5</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <f>0.12%+J14-I20+I23</f>
         <v>4.3758114223487578E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <f>C30-J14</f>
         <v>1.3403976805763159E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
-      <c r="C32" s="12"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <f>C30-C26</f>
         <v>-7.2472530402115272E-4</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <f>C27+C33</f>
         <v>4.4467032674074128E-3</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2224,34 +2228,34 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.47265625" customWidth="1"/>
-    <col min="3" max="3" width="13.71875" customWidth="1"/>
-    <col min="4" max="4" width="14.66015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.41015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.66015625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="16.27734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.27734375" customWidth="1"/>
-    <col min="12" max="12" width="15.46875" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>35</v>
       </c>
@@ -2259,7 +2263,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>2013</v>
       </c>
@@ -2290,39 +2294,39 @@
       <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>43898122</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>252031560</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>558122115</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>635252624</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>1382224416</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>1480869360</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <v>1971859507</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="20">
         <v>1912680136</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="20">
         <v>2825325240</v>
       </c>
       <c r="L5" s="1"/>
@@ -2330,317 +2334,317 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="20">
+      <c r="C6" s="5"/>
+      <c r="D6" s="19">
         <v>348524</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>1087252</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>1277504</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>2493543</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>3984684</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <v>4162039</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="20">
         <v>4590519</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="20">
         <v>5410324</v>
       </c>
       <c r="O6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <f>((2/12)*0.29%)+((10/12)*0.25%)</f>
         <v>2.5666666666666667E-3</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="14">
         <f>((114/366)*0.25%)+((252/366)*0.22%)</f>
         <v>2.29344262295082E-3</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <f>AVERAGE(D7:K7)</f>
         <v>2.4950136612021862E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="20">
+      <c r="C8" s="5"/>
+      <c r="D8" s="19">
         <f>(C5+D5)/2</f>
         <v>147964841</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <f t="shared" ref="E8:K8" si="0">(D5+E5)/2</f>
         <v>405076837.5</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <f t="shared" si="0"/>
         <v>596687369.5</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <f t="shared" si="0"/>
         <v>1008738520</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <f t="shared" si="0"/>
         <v>1431546888</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <f t="shared" si="0"/>
         <v>1726364433.5</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <f t="shared" si="0"/>
         <v>1942269821.5</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <f t="shared" si="0"/>
         <v>2369002688</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="O8" s="33" t="s">
+      <c r="L8" s="3"/>
+      <c r="O8" s="31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="21">
+      <c r="C9" s="5"/>
+      <c r="D9" s="20">
         <f>D6/E7</f>
         <v>135788571.42857143</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <f t="shared" ref="E9:J9" si="1">E6/E7</f>
         <v>423604675.32467532</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <f t="shared" si="1"/>
         <v>511001600</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <f t="shared" si="1"/>
         <v>997417200</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <f t="shared" si="1"/>
         <v>1593873600</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="20">
         <f t="shared" si="1"/>
         <v>1664815600</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="20">
         <f t="shared" si="1"/>
         <v>2001584410.2930663</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="20">
         <f t="shared" ref="K9" si="2">K6/K7</f>
         <v>2459238181.8181815</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="O9" s="33" t="s">
+      <c r="L9" s="3"/>
+      <c r="O9" s="31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C10" s="6"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
         <v>3325881</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>13386831</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>17405209</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>29020960</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>44723633</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>55691122</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>57139164</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>57452248</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="3"/>
       <c r="O11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
         <v>298586</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>1274164</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>1706810</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>3013440</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>4856073</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>5576288</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>6005283</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <f>6241303+431841</f>
         <v>6673144</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="3"/>
       <c r="O12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <f>D12/D11</f>
         <v>8.9776513350898604E-2</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <f t="shared" ref="E13:K13" si="3">E12/E11</f>
         <v>9.5180405280383379E-2</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <f t="shared" si="3"/>
         <v>9.8063171778057942E-2</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <f t="shared" si="3"/>
         <v>0.10383667528572453</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <f t="shared" si="3"/>
         <v>0.10857957357802306</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <f t="shared" si="3"/>
         <v>0.10012884998079227</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="16">
         <f t="shared" si="3"/>
         <v>0.10509924506420849</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="16">
         <f t="shared" si="3"/>
         <v>0.11615113824614835</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <f>AVERAGE(D13:K13)</f>
         <v>0.10210194657052958</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <f t="shared" ref="D14:K14" si="4">D12/D9</f>
         <v>2.1989037579430207E-3</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <f t="shared" si="4"/>
         <v>3.0079082555531439E-3</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <f t="shared" si="4"/>
         <v>3.3401265279795599E-3</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <f t="shared" si="4"/>
         <v>3.0212432671102925E-3</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <f t="shared" si="4"/>
         <v>3.0467114832694385E-3</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <f t="shared" si="4"/>
         <v>3.3494928807731019E-3</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="15">
         <f t="shared" si="4"/>
         <v>3.0002646748835955E-3</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <f t="shared" si="4"/>
         <v>2.7135004853683442E-3</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <f>AVERAGE(D14:K14)</f>
         <v>2.9597689166100619E-3</v>
       </c>
@@ -2648,264 +2652,264 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21">
+      <c r="C16" s="5"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20">
         <v>4397504</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="20">
         <v>4131498</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="20">
         <v>5461085</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="20">
         <v>9560909</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="20">
         <v>11232569</v>
       </c>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="16">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="15">
         <f>G16/G5</f>
         <v>3.1814689055528881E-3</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="15">
         <f>H16/H5</f>
         <v>2.7899138922018079E-3</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="15">
         <f>I16/I5</f>
         <v>2.7695101910726544E-3</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="15">
         <f>J16/J5</f>
         <v>4.9986972834855647E-3</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="15">
         <f>K16/K5</f>
         <v>3.9756729034141217E-3</v>
       </c>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21">
+      <c r="C19" s="5"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20">
         <v>46231</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <v>161281</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="20">
         <v>215630</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="20">
         <v>205976</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="20">
         <v>241334</v>
       </c>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <f t="shared" ref="D20:K20" si="5">D19/D9</f>
         <v>0</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="17">
         <f t="shared" si="5"/>
         <v>4.6350714625735352E-5</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="17">
         <f t="shared" si="5"/>
         <v>1.0118807413586624E-4</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="17">
         <f t="shared" si="5"/>
         <v>1.2952185214987173E-4</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="17">
         <f t="shared" si="5"/>
         <v>1.0290647695934121E-4</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="17">
         <f t="shared" si="5"/>
         <v>9.8133642273549616E-5</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="3">
         <f>AVERAGE(D20:K20)</f>
         <v>5.9762595018045511E-5</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5">
         <v>248141</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <v>437315</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <v>522563</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="20">
         <v>913162</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="20">
         <v>588927</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="20">
         <v>821909</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="20">
         <v>1066867</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="20">
         <v>839604</v>
       </c>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <f t="shared" ref="D23:K23" si="6">D22/D9</f>
         <v>1.8274071034802002E-3</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <f t="shared" si="6"/>
         <v>1.0323658483344553E-3</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <f t="shared" si="6"/>
         <v>1.0226249780822603E-3</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="15">
         <f t="shared" si="6"/>
         <v>9.155266221597141E-4</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="15">
         <f t="shared" si="6"/>
         <v>3.6949416816992265E-4</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="18">
         <f t="shared" si="6"/>
         <v>4.9369371598872568E-4</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="18">
         <f t="shared" si="6"/>
         <v>5.3301124574795845E-4</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="18">
         <f t="shared" si="6"/>
         <v>3.414081670524723E-4</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <f>AVERAGE(D23:K23)</f>
         <v>8.1694148112696364E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L25" s="19"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <f>L7+L14-L20+L23</f>
         <v>6.2119614639211656E-3</v>
       </c>
       <c r="D26" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <f>AVERAGE(GTD!D19:J19)/100</f>
         <v>6.3571428571428589E-3</v>
       </c>
@@ -2913,73 +2917,73 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <f>C27-C26</f>
         <v>1.4518139322169336E-4</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <f>0.22%+L14-K20+AVERAGE(J23:K23)</f>
         <v>5.4988449807367281E-3</v>
       </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <f>C30-L14</f>
         <v>2.5390760641266661E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
-      <c r="C32" s="12"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <f>C30-C26</f>
         <v>-7.1311648318443752E-4</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <f>C27+C33</f>
         <v>5.6440263739584214E-3</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2998,30 +3002,30 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.47265625" customWidth="1"/>
-    <col min="3" max="3" width="16.41015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.66015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="16.27734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.27734375" customWidth="1"/>
-    <col min="10" max="10" width="15.46875" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>68</v>
       </c>
@@ -3029,7 +3033,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>2015</v>
       </c>
@@ -3054,612 +3058,611 @@
       <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="36">
         <v>44377</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>286237679</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>502327318</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>1113048696</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>1679694691</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>1694765475</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>2009226586</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <v>2645377063</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>197844</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>500281</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>868002</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>1747960</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>1927300</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>2030488</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <v>2223741</v>
       </c>
       <c r="M6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <f>((114/366)*0.12%)+((252/366)*0.1%)</f>
         <v>1.0622950819672132E-3</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>1E-3</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <f>AVERAGE(D7:I7)</f>
         <v>1.1437158469945355E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19">
         <f t="shared" ref="D8" si="0">(C5+D5)/2</f>
         <v>394282498.5</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <f t="shared" ref="E8" si="1">(D5+E5)/2</f>
         <v>807688007</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <f t="shared" ref="F8" si="2">(E5+F5)/2</f>
         <v>1396371693.5</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <f t="shared" ref="G8" si="3">(F5+G5)/2</f>
         <v>1687230083</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <f t="shared" ref="H8:I8" si="4">(G5+H5)/2</f>
         <v>1851996030.5</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <f t="shared" si="4"/>
         <v>2327301824.5</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="3"/>
       <c r="M8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <f t="shared" ref="C9:H9" si="5">C6/C7</f>
         <v>164870000</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <f t="shared" si="5"/>
         <v>416900833.33333337</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <f t="shared" si="5"/>
         <v>723335000.00000012</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <f t="shared" si="5"/>
         <v>1456633333.3333335</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <f t="shared" si="5"/>
         <v>1606083333.3333335</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <f t="shared" si="5"/>
         <v>1911416172.8395061</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="20">
         <f t="shared" ref="I9" si="6">I6/I7</f>
         <v>2223741000</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="M9" s="32" t="s">
+      <c r="J9" s="3"/>
+      <c r="M9" s="30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="4"/>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="3"/>
       <c r="M10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>6453840</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>16699948</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>28612288</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>55451908</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>63355725</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>53087528</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>70651678</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="3"/>
       <c r="M11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>449779</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>1214196</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>2137859</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>4211322</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>4497447</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>5016404</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>5281336</v>
       </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <f t="shared" ref="C13:H13" si="7">C12/C11</f>
         <v>6.9691687429499341E-2</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <f t="shared" si="7"/>
         <v>7.2706573697115709E-2</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <f t="shared" si="7"/>
         <v>7.4718211979412488E-2</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <f t="shared" si="7"/>
         <v>7.5945484148173939E-2</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <f t="shared" si="7"/>
         <v>7.0987223333013716E-2</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <f t="shared" si="7"/>
         <v>9.4493079429126936E-2</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <f t="shared" ref="I13" si="8">I12/I11</f>
         <v>7.475174191899589E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <f>AVERAGE(D13:I13)</f>
         <v>7.7267052417639773E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <f t="shared" ref="C14:H14" si="9">C12/C9</f>
         <v>2.7280827318493356E-3</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <f t="shared" si="9"/>
         <v>2.9124336123098815E-3</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <f t="shared" si="9"/>
         <v>2.9555586277450968E-3</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <f t="shared" si="9"/>
         <v>2.8911338932241007E-3</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <f t="shared" si="9"/>
         <v>2.8002575623929846E-3</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <f t="shared" si="9"/>
         <v>2.6244436304773315E-3</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <f t="shared" ref="I14" si="10">I12/I9</f>
         <v>2.3749780212713621E-3</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <f>AVERAGE(D14:I14)</f>
         <v>2.7598008912367929E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20">
         <v>4326489</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20">
         <v>22002115</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="20">
         <v>12654321</v>
       </c>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="16">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15">
         <f>E16/E5</f>
         <v>0</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <f>F16/F5</f>
         <v>2.5757591681284894E-3</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <f>G16/G5</f>
         <v>0</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="15">
         <f>H16/H5</f>
         <v>1.0950539452995274E-2</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="15">
         <f>I16/I5</f>
         <v>4.7835604145026189E-3</v>
       </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20">
         <v>89435</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>193993</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <v>209291</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <v>480474</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="20">
         <v>607727</v>
       </c>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <f t="shared" ref="C20:I20" si="11">C19/C9</f>
         <v>0</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <f t="shared" si="11"/>
         <v>1.2364257225213764E-4</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="17">
         <f t="shared" si="11"/>
         <v>1.3317902011487676E-4</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="17">
         <f t="shared" si="11"/>
         <v>1.3031142012141336E-4</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="17">
         <f t="shared" si="11"/>
         <v>2.5137068882609241E-4</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="17">
         <f t="shared" si="11"/>
         <v>2.7329036969683069E-4</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <f>AVERAGE(D20:I20)</f>
         <v>1.519656785018918E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <v>422303</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="20">
         <v>602163</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>1099868</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <v>1252501</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="20">
         <v>481133</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="20">
         <v>891525</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="20">
         <v>325824</v>
       </c>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <f t="shared" ref="C23:I23" si="12">C22/C9</f>
         <v>2.5614302177473162E-3</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <f t="shared" si="12"/>
         <v>1.4443794587441856E-3</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <f t="shared" si="12"/>
         <v>1.5205513351351722E-3</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <f t="shared" si="12"/>
         <v>8.5986017986681605E-4</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="18">
         <f t="shared" si="12"/>
         <v>2.9956913817257301E-4</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="18">
         <f t="shared" si="12"/>
         <v>4.6642118690227161E-4</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="18">
         <f t="shared" si="12"/>
         <v>1.4652066045461231E-4</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <f>AVERAGE(D23:I23)</f>
         <v>7.8955032654593838E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J26" s="19"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <f>J7+J14-J20+J23</f>
         <v>4.541101386275375E-3</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E27" s="8"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <f>AVERAGE(GTD!F26:J26)/100</f>
         <v>3.7799999999999995E-3</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <f>C28-C27</f>
         <v>-7.6110138627537554E-4</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <f>I7+J14-I20+I23</f>
         <v>3.6330311819945745E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
-      <c r="C32" s="12"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
-      <c r="C33" s="12"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="2"/>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3678,30 +3681,30 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.47265625" customWidth="1"/>
-    <col min="3" max="3" width="16.41015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.66015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="16.27734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.27734375" customWidth="1"/>
-    <col min="10" max="10" width="15.46875" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>68</v>
       </c>
@@ -3709,7 +3712,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>2015</v>
       </c>
@@ -3734,31 +3737,31 @@
       <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="32"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M4" s="30"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>95809998</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>123443681</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>256132398</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>353569464</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>391574855</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>578659274</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <v>1090229427</v>
       </c>
       <c r="J5" s="1"/>
@@ -3766,62 +3769,62 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>176697</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>222968</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>394440</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>734028</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>772839</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>756995</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <v>1281554</v>
       </c>
       <c r="M6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <f>((114/366)*0.22%)+((252/366)*0.15%)</f>
         <v>1.7180327868852462E-3</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>1.5E-3</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <f>AVERAGE(C7:I7)</f>
         <v>2.0311475409836065E-3</v>
       </c>
@@ -3829,509 +3832,508 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19">
         <f t="shared" ref="D8:I8" si="0">(C5+D5)/2</f>
         <v>109626839.5</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <f t="shared" si="0"/>
         <v>189788039.5</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <f t="shared" si="0"/>
         <v>304850931</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <f t="shared" si="0"/>
         <v>372572159.5</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <f t="shared" si="0"/>
         <v>485117064.5</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <f t="shared" si="0"/>
         <v>834444350.5</v>
       </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <f t="shared" ref="C9:H9" si="1">C6/C7</f>
         <v>80316818.181818172</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <f t="shared" si="1"/>
         <v>101349090.90909091</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <f t="shared" si="1"/>
         <v>179290909.09090909</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <f t="shared" si="1"/>
         <v>333649090.90909088</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <f t="shared" si="1"/>
         <v>351290454.5454545</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <f t="shared" si="1"/>
         <v>440617318.70229</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="20">
         <f t="shared" ref="I9" si="2">I6/I7</f>
         <v>854369333.33333337</v>
       </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>2910412</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>3697627</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>6020134</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>12310610</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>14080736</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>14853415</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>27718490</v>
       </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>95674</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>135521</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>217184</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>396984</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>725905</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>642854</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>1842818</v>
       </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <f t="shared" ref="C13:H13" si="3">C12/C11</f>
         <v>3.2873009044767545E-2</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <f t="shared" si="3"/>
         <v>3.6650803339547226E-2</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <f t="shared" si="3"/>
         <v>3.6076273385276809E-2</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <f t="shared" si="3"/>
         <v>3.2247305373169971E-2</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <f t="shared" si="3"/>
         <v>5.1553058021967031E-2</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <f t="shared" si="3"/>
         <v>4.3279878734957582E-2</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <f t="shared" ref="I13" si="4">I12/I11</f>
         <v>6.6483347397351011E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <f>AVERAGE(C13:I13)</f>
         <v>4.2737667899576733E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <f t="shared" ref="C14:H14" si="5">C12/C9</f>
         <v>1.191207547383374E-3</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <f t="shared" si="5"/>
         <v>1.3371703562843099E-3</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <f t="shared" si="5"/>
         <v>1.2113497616874555E-3</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <f t="shared" si="5"/>
         <v>1.1898249113112852E-3</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <f t="shared" si="5"/>
         <v>2.0663954588213073E-3</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <f t="shared" si="5"/>
         <v>1.4589848667168582E-3</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <f t="shared" ref="I14" si="6">I12/I9</f>
         <v>2.1569336914402356E-3</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <f>AVERAGE(C14:I14)</f>
         <v>1.5159809419492607E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20">
         <v>2168054</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20">
         <v>5733068</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="20">
         <v>2494078</v>
       </c>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="16">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15">
         <f>E16/E5</f>
         <v>0</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <f>F16/F5</f>
         <v>6.1319039700781404E-3</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <f>G16/G5</f>
         <v>0</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="15">
         <f>H16/H5</f>
         <v>9.9075021478010564E-3</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="15">
         <f>I16/I5</f>
         <v>2.2876634387525114E-3</v>
       </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20">
         <v>4070</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>43784</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <v>81269</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <v>147489</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="20">
         <v>85284</v>
       </c>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <f t="shared" ref="C20:I20" si="7">C19/C9</f>
         <v>0</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <f t="shared" si="7"/>
         <v>2.2700537470844743E-5</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="17">
         <f t="shared" si="7"/>
         <v>1.3122769158669699E-4</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="17">
         <f t="shared" si="7"/>
         <v>2.3134417388356439E-4</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="17">
         <f t="shared" si="7"/>
         <v>3.3473264381524061E-4</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="17">
         <f t="shared" si="7"/>
         <v>9.9820998568924912E-5</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <f>AVERAGE(C20:I20)</f>
         <v>1.1711800647503882E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <v>57821</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="20">
         <v>32497</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>59576</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <v>92342</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="20">
         <v>59886</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="20">
         <v>127784</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="20">
         <v>211398</v>
       </c>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <f t="shared" ref="C23:I23" si="8">C22/C9</f>
         <v>7.1991148689564625E-4</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <f t="shared" si="8"/>
         <v>3.2064421800437733E-4</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <f t="shared" si="8"/>
         <v>3.322867863299868E-4</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <f t="shared" si="8"/>
         <v>2.7676382917272914E-4</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="18">
         <f t="shared" si="8"/>
         <v>1.7047431612535083E-4</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="18">
         <f t="shared" si="8"/>
         <v>2.9001129682407981E-4</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="18">
         <f t="shared" si="8"/>
         <v>2.4743163378211137E-4</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <f>AVERAGE(C23:I23)</f>
         <v>3.3678908101918311E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J26" s="19"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <f>J7+J14-J20+J23</f>
         <v>3.766799557477012E-3</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E27" s="8"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <f>AVERAGE(GTD!E33:J33)/100</f>
         <v>3.5500000000000015E-3</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <f>C28-C27</f>
         <v>-2.1679955747701046E-4</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <f>I7+J14-I20+I23</f>
         <v>3.1635915771624466E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
-      <c r="C32" s="12"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
-      <c r="C33" s="12"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="2"/>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4345,30 +4347,30 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.47265625" customWidth="1"/>
-    <col min="3" max="3" width="16.41015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.66015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="16.27734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.27734375" customWidth="1"/>
-    <col min="10" max="10" width="15.46875" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>68</v>
       </c>
@@ -4376,7 +4378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>2015</v>
       </c>
@@ -4401,31 +4403,31 @@
       <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="32"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M4" s="30"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>590786984</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>722285064</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>1085744450</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>2020467317</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>1829551730</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>1685328502</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <v>2170757534</v>
       </c>
       <c r="J5" s="1"/>
@@ -4433,62 +4435,62 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>1049432</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>1383165</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>1596845</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>3363704</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>3719157</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>2951847</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <v>3098267</v>
       </c>
       <c r="M6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>1.9E-3</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>1.9E-3</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>1.9E-3</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>1.9E-3</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>1.9E-3</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <f>((114/366)*0.19%)+((252/366)*0.15%)</f>
         <v>1.6245901639344263E-3</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>1.5E-3</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <f>AVERAGE(C7:I7)</f>
         <v>1.8035128805620607E-3</v>
       </c>
@@ -4496,509 +4498,508 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19">
         <f t="shared" ref="D8:I8" si="0">(C5+D5)/2</f>
         <v>656536024</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <f t="shared" si="0"/>
         <v>904014757</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <f t="shared" si="0"/>
         <v>1553105883.5</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <f t="shared" si="0"/>
         <v>1925009523.5</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <f t="shared" si="0"/>
         <v>1757440116</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <f t="shared" si="0"/>
         <v>1928043018</v>
       </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <f t="shared" ref="C9:H9" si="1">C6/C7</f>
         <v>552332631.57894742</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <f t="shared" si="1"/>
         <v>727981578.94736838</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <f t="shared" si="1"/>
         <v>840444736.84210527</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <f t="shared" si="1"/>
         <v>1770370526.3157895</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <f t="shared" si="1"/>
         <v>1957451052.6315789</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <f t="shared" si="1"/>
         <v>1816979485.3683147</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="20">
         <f t="shared" ref="I9" si="2">I6/I7</f>
         <v>2065511333.3333333</v>
       </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>10217727</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>16266986</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>17759481</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>39527484</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>46429139</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>44479054</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>44662717</v>
       </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>1532098</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>2439137</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>2650584</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>5929674</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>6964518</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>6671858</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>6670470</v>
       </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <f t="shared" ref="C13:H13" si="3">C12/C11</f>
         <v>0.14994509052747251</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <f t="shared" si="3"/>
         <v>0.14994400314846279</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <f>E12/E11</f>
         <v>0.14924895609280475</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <f t="shared" si="3"/>
         <v>0.15001394978744409</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <f t="shared" si="3"/>
         <v>0.15000316934587135</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <f t="shared" si="3"/>
         <v>0.14999999775175074</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <f t="shared" ref="I13" si="4">I12/I11</f>
         <v>0.14935208711104611</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <f>AVERAGE(C13:I13)</f>
         <v>0.14978675053783605</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <f t="shared" ref="C14:H14" si="5">C12/C9</f>
         <v>2.7738683402068927E-3</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <f t="shared" si="5"/>
         <v>3.3505476931530226E-3</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <f t="shared" si="5"/>
         <v>3.153787374479051E-3</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <f t="shared" si="5"/>
         <v>3.3493971526626599E-3</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <f t="shared" si="5"/>
         <v>3.557952568283619E-3</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <f t="shared" si="5"/>
         <v>3.6719500983510372E-3</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <f t="shared" ref="I14" si="6">I12/I9</f>
         <v>3.2294521421168676E-3</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <f>AVERAGE(C14:I14)</f>
         <v>3.2981364813218783E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20">
         <v>4191238</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20">
         <v>109586469</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="20">
         <v>132363890</v>
       </c>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="16">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15">
         <f>E16/E5</f>
         <v>0</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <f>F16/F5</f>
         <v>2.0743903970805977E-3</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <f>G16/G5</f>
         <v>0</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="15">
         <f>H16/H5</f>
         <v>6.5023803294106994E-2</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="15">
         <f>I16/I5</f>
         <v>6.0975898011094959E-2</v>
       </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20">
         <v>23585</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>204352</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <v>191141</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <v>287610</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="20">
         <v>254177</v>
       </c>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <f t="shared" ref="C20:I20" si="7">C19/C9</f>
         <v>0</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <f t="shared" si="7"/>
         <v>2.806252328810874E-5</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="17">
         <f t="shared" si="7"/>
         <v>1.1542894380718398E-4</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="17">
         <f t="shared" si="7"/>
         <v>9.764790784578334E-5</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="17">
         <f t="shared" si="7"/>
         <v>1.5829017460904321E-4</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="17">
         <f t="shared" si="7"/>
         <v>1.2305766417161594E-4</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <f>AVERAGE(C20:I20)</f>
         <v>7.464103053167645E-5</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <v>85794</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="20">
         <v>109651</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>103589</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <v>128797</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="20">
         <v>90461</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="20">
         <v>37218</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="20">
         <v>85891</v>
       </c>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <f t="shared" ref="C23:I23" si="8">C22/C9</f>
         <v>1.5533031201640505E-4</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <f t="shared" si="8"/>
         <v>1.5062331681325078E-4</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <f t="shared" si="8"/>
         <v>1.2325498091549274E-4</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <f t="shared" si="8"/>
         <v>7.2751437106237648E-5</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="18">
         <f t="shared" si="8"/>
         <v>4.6213671539007365E-5</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="18">
         <f t="shared" si="8"/>
         <v>2.0483445355166266E-5</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="18">
         <f t="shared" si="8"/>
         <v>4.1583407756658806E-5</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <f>AVERAGE(C23:I23)</f>
         <v>8.7177224500316946E-5</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J26" s="19"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <f>J7+J14-J20+J23</f>
         <v>5.1141855558525795E-3</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E27" s="8"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <f>AVERAGE(GTD!E40:J40)/100</f>
         <v>5.416666666666666E-3</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <f>C28-C27</f>
         <v>3.0248111081408648E-4</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <f>I7+J14-I20+I23</f>
         <v>4.7166622249069203E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
-      <c r="C32" s="12"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
-      <c r="C33" s="12"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="2"/>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5008,630 +5009,680 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55271D4-8CAB-4791-86A4-56A1D92A09CA}">
-  <dimension ref="B1:N41"/>
+  <dimension ref="B1:P41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C1" s="26">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C1" s="25">
         <v>2013</v>
       </c>
-      <c r="D1" s="26">
+      <c r="D1" s="25">
         <v>2014</v>
       </c>
-      <c r="E1" s="26">
+      <c r="E1" s="25">
         <v>2015</v>
       </c>
-      <c r="F1" s="26">
+      <c r="F1" s="25">
         <v>2016</v>
       </c>
-      <c r="G1" s="26">
+      <c r="G1" s="25">
         <v>2017</v>
       </c>
-      <c r="H1" s="26">
+      <c r="H1" s="25">
         <v>2018</v>
       </c>
-      <c r="I1" s="26">
+      <c r="I1" s="25">
         <v>2019</v>
       </c>
-      <c r="J1" s="26">
+      <c r="J1" s="25">
         <v>2020</v>
       </c>
-      <c r="K1" s="26">
+      <c r="K1" s="25">
         <v>2021</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="25">
+        <v>2022</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="O1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <v>22.82</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="22">
         <v>4.28</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <v>-2.23</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="22">
         <v>7.98</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="22">
         <v>23.98</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="22">
         <v>-9.6199999999999992</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="22">
         <v>26.57</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="23">
         <v>15.99</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="23">
         <v>18.329999999999998</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="22" t="s">
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <v>23.3</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="23">
         <v>4.8</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="23">
         <v>-1.7</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="23">
         <v>8.6</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="23">
         <v>24.6</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="23">
         <v>-9.1</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="23">
         <v>27.2</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="23">
         <v>16.600000000000001</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="23">
         <v>18.899999999999999</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="22" t="s">
+      <c r="L3" s="23"/>
+      <c r="M3" s="23">
+        <v>-17.7</v>
+      </c>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>22.69</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>4.2300000000000004</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>-2.17</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <v>8</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>23.97</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="24">
         <v>-9.57</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="24">
         <v>26.52</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="23">
         <v>16.010000000000002</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="23">
         <v>18.399999999999999</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="22" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <f t="shared" ref="C5:J5" si="0">C3-C2</f>
         <v>0.48000000000000043</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <f t="shared" si="0"/>
         <v>0.51999999999999957</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <f t="shared" si="0"/>
         <v>0.53</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <f t="shared" si="0"/>
         <v>0.61999999999999922</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="22">
         <f t="shared" si="0"/>
         <v>0.62000000000000099</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <f t="shared" si="0"/>
         <v>0.51999999999999957</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="22">
         <f t="shared" si="0"/>
         <v>0.62999999999999901</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="22">
         <f t="shared" si="0"/>
         <v>0.61000000000000121</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="22">
         <f t="shared" ref="K5" si="1">K3-K2</f>
         <v>0.57000000000000028</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="27">
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="26">
         <f>AVERAGE(C5:K5)</f>
         <v>0.56666666666666676</v>
       </c>
-      <c r="N5" s="28"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
+      <c r="P5" s="26"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <f>C2-C4</f>
         <v>0.12999999999999901</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <f t="shared" ref="D6:J6" si="2">D2-D4</f>
         <v>4.9999999999999822E-2</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <f t="shared" si="2"/>
         <v>-6.0000000000000053E-2</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <f t="shared" si="2"/>
         <v>-1.9999999999999574E-2</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <f t="shared" si="2"/>
         <v>1.0000000000001563E-2</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <f t="shared" si="2"/>
         <v>-4.9999999999998934E-2</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <f t="shared" si="2"/>
         <v>5.0000000000000711E-2</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <f t="shared" si="2"/>
         <v>-2.000000000000135E-2</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <f t="shared" ref="K6" si="3">K2-K4</f>
         <v>-7.0000000000000284E-2</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28">
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26">
         <f>AVERAGE(C6:K6)</f>
         <v>2.2222222222223228E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="22" t="s">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22">
         <v>-0.81</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>7.68</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>23.29</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>-9.1</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>27.42</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <v>16.21</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="22">
         <v>20.99</v>
       </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="22" t="s">
+      <c r="L9" s="22">
+        <v>-18.05</v>
+      </c>
+      <c r="M9" s="22"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22">
         <v>-0.3</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>23.9</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>-8.6</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>28</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>16.7</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="22">
         <v>21.4</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="34"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="22" t="s">
+      <c r="L10" s="22">
+        <v>-17.8</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22">
         <v>-0.81</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>7.55</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <v>23.18</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>-9.1300000000000008</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>27.27</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <v>16.11</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="22">
         <v>20.87</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="22" t="s">
+      <c r="L11" s="22">
+        <v>-18.149999999999999</v>
+      </c>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22">
         <f>E10-E9</f>
         <v>0.51</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <f t="shared" ref="F12:J12" si="4">F10-F9</f>
         <v>0.51999999999999957</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <f t="shared" si="4"/>
         <v>0.60999999999999943</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <f t="shared" si="4"/>
         <v>0.57999999999999829</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <f t="shared" si="4"/>
         <v>0.48999999999999844</v>
       </c>
-      <c r="K12" s="23">
-        <f t="shared" ref="K12" si="5">K10-K9</f>
+      <c r="K12" s="22">
+        <f t="shared" ref="K12:L12" si="5">K10-K9</f>
         <v>0.41000000000000014</v>
       </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="34">
+      <c r="L12" s="22">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="32">
         <f>AVERAGE(E12:K12)</f>
         <v>0.51714285714285657</v>
       </c>
-      <c r="N12" s="34"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="22" t="s">
+      <c r="P12" s="32"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22">
         <f>E9-E11</f>
         <v>0</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <f t="shared" ref="F13:J13" si="6">F9-F11</f>
         <v>0.12999999999999989</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <f t="shared" si="6"/>
         <v>0.10999999999999943</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <f t="shared" si="6"/>
         <v>3.0000000000001137E-2</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <f t="shared" si="6"/>
         <v>0.15000000000000213</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <f t="shared" si="6"/>
         <v>0.10000000000000142</v>
       </c>
-      <c r="K13" s="23">
-        <f t="shared" ref="K13" si="7">K9-K11</f>
+      <c r="K13" s="22">
+        <f t="shared" ref="K13:L13" si="7">K9-K11</f>
         <v>0.11999999999999744</v>
       </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34">
+      <c r="L13" s="22">
+        <f t="shared" si="7"/>
+        <v>9.9999999999997868E-2</v>
+      </c>
+      <c r="M13" s="22"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32">
         <f>AVERAGE(E13:K13)</f>
         <v>9.1428571428571637E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="22"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="35" t="s">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="21"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="34">
         <v>-3.96</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="34">
         <v>1.0900000000000001</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="34">
         <v>-15.51</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="34">
         <v>12.76</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="34">
         <v>31.89</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="34">
         <v>-13.5</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="34">
         <v>19.66</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="34">
         <v>14.66</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="34">
         <v>-0.66</v>
       </c>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="35" t="s">
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="34">
         <v>-3.5</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="34">
         <v>1.6</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="34">
         <v>-15.2</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="34">
         <v>13.5</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="34">
         <v>32.5</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="34">
         <v>-13</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="34">
         <v>20.6</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="34">
         <v>15.5</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="34">
         <v>0.1</v>
       </c>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="35" t="s">
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="34">
         <v>-3.79</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="34">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="34">
         <v>-15.51</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="34">
         <v>13.14</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="34">
         <v>32.08</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="34">
         <v>-13.34</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="34">
         <v>20.100000000000001</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="34">
         <v>15.12</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18" s="34">
         <v>-0.24</v>
       </c>
-      <c r="L18" s="37"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="35" t="s">
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="35"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="34">
         <f>C17-C16</f>
         <v>0.45999999999999996</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="34">
         <f t="shared" ref="D19:K19" si="8">D17-D16</f>
         <v>0.51</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="34">
         <f t="shared" si="8"/>
         <v>0.3100000000000005</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="34">
         <f t="shared" si="8"/>
         <v>0.74000000000000021</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="34">
         <f t="shared" si="8"/>
         <v>0.60999999999999943</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="34">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="34">
         <f t="shared" si="8"/>
         <v>0.94000000000000128</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="34">
         <f t="shared" si="8"/>
         <v>0.83999999999999986</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="34">
         <f t="shared" si="8"/>
         <v>0.76</v>
       </c>
-      <c r="M19" s="37">
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="O19" s="35">
         <f>AVERAGE(C19:K19)</f>
         <v>0.63000000000000012</v>
       </c>
-      <c r="N19" s="36"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="35" t="s">
+      <c r="P19" s="34"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="34">
         <f>C16-C18</f>
         <v>-0.16999999999999993</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="34">
         <f t="shared" ref="D20:K20" si="9">D16-D18</f>
         <v>-3.0000000000000027E-2</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="34">
         <f t="shared" si="9"/>
         <v>-0.38000000000000078</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="34">
         <f t="shared" si="9"/>
         <v>-0.18999999999999773</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="34">
         <f t="shared" si="9"/>
         <v>-0.16000000000000014</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="34">
         <f t="shared" si="9"/>
         <v>-0.44000000000000128</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="34">
         <f t="shared" si="9"/>
         <v>-0.45999999999999908</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="34">
         <f t="shared" si="9"/>
         <v>-0.42000000000000004</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="37">
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="35">
         <f>AVERAGE(C20:K20)</f>
         <v>-0.24999999999999989</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="35" t="s">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="33" t="s">
         <v>70</v>
       </c>
       <c r="D23">
@@ -5659,8 +5710,8 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="35" t="s">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="33" t="s">
         <v>71</v>
       </c>
       <c r="D24">
@@ -5688,8 +5739,8 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="35" t="s">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="33" t="s">
         <v>72</v>
       </c>
       <c r="D25">
@@ -5717,91 +5768,95 @@
         <v>24.86</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="35" t="s">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="34">
         <f t="shared" ref="D26:J26" si="10">D24-D23</f>
         <v>0.24000000000000021</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="34">
         <f t="shared" si="10"/>
         <v>0.37000000000000099</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="34">
         <f t="shared" si="10"/>
         <v>0.3400000000000003</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="34">
         <f t="shared" si="10"/>
         <v>0.36999999999999922</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="34">
         <f t="shared" si="10"/>
         <v>0.37000000000000099</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="34">
         <f t="shared" si="10"/>
         <v>0.44999999999999929</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J26" s="34">
         <f t="shared" si="10"/>
         <v>0.35999999999999988</v>
       </c>
-      <c r="K26" s="36">
+      <c r="K26" s="34">
         <f t="shared" ref="K26" si="11">K24-K23</f>
         <v>0.30000000000000071</v>
       </c>
-      <c r="M26" s="37">
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="O26" s="35">
         <f>AVERAGE(D26:K26)</f>
         <v>0.3500000000000002</v>
       </c>
-      <c r="N26" s="36"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="35" t="s">
+      <c r="P26" s="34"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="34">
         <f t="shared" ref="D27:J27" si="12">D23-D25</f>
         <v>0.33000000000000007</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="34">
         <f t="shared" si="12"/>
         <v>0.25999999999999979</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="34">
         <f t="shared" si="12"/>
         <v>0.30999999999999961</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="34">
         <f t="shared" si="12"/>
         <v>0.24000000000000021</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="34">
         <f t="shared" si="12"/>
         <v>0.20999999999999908</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="34">
         <f t="shared" si="12"/>
         <v>0.33999999999999986</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="34">
         <f t="shared" si="12"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="34">
         <f t="shared" ref="K27" si="13">K23-K25</f>
         <v>0.33999999999999986</v>
       </c>
-      <c r="M27" s="36"/>
-      <c r="N27" s="37">
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="35">
         <f>AVERAGE(D27:K27)</f>
         <v>0.2724999999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>73</v>
       </c>
@@ -5830,8 +5885,8 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="35" t="s">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="33" t="s">
         <v>74</v>
       </c>
       <c r="D31">
@@ -5859,8 +5914,8 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="35" t="s">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="33" t="s">
         <v>77</v>
       </c>
       <c r="D32">
@@ -5888,94 +5943,98 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B33" s="35" t="s">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36">
+      <c r="C33" s="34"/>
+      <c r="D33" s="34">
         <f t="shared" ref="D33:J33" si="14">D31-D30</f>
         <v>0.55999999999999961</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="34">
         <f t="shared" si="14"/>
         <v>0.30000000000000071</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="34">
         <f t="shared" si="14"/>
         <v>0.41000000000000014</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="34">
         <f t="shared" si="14"/>
         <v>0.49000000000000199</v>
       </c>
-      <c r="H33" s="36">
+      <c r="H33" s="34">
         <f t="shared" si="14"/>
         <v>0.36999999999999922</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="34">
         <f t="shared" si="14"/>
         <v>0.42999999999999972</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="34">
         <f t="shared" si="14"/>
         <v>0.12999999999999901</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="34">
         <f t="shared" ref="K33" si="15">K31-K30</f>
         <v>0.34999999999999987</v>
       </c>
-      <c r="M33" s="37">
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="O33" s="35">
         <f>AVERAGE(D33:K33)</f>
         <v>0.38</v>
       </c>
-      <c r="N33" s="36"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="35" t="s">
+      <c r="P33" s="34"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36">
+      <c r="C34" s="34"/>
+      <c r="D34" s="34">
         <f t="shared" ref="D34:J34" si="16">D30-D32</f>
         <v>-0.39999999999999991</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="34">
         <f t="shared" si="16"/>
         <v>-0.13000000000000078</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="34">
         <f t="shared" si="16"/>
         <v>-0.12999999999999901</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="34">
         <f t="shared" si="16"/>
         <v>-0.19999999999999574</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34" s="34">
         <f t="shared" si="16"/>
         <v>-0.13999999999999879</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="34">
         <f t="shared" si="16"/>
         <v>-0.12000000000000099</v>
       </c>
-      <c r="J34" s="36">
+      <c r="J34" s="34">
         <f t="shared" si="16"/>
         <v>8.0000000000001847E-2</v>
       </c>
-      <c r="K34" s="36">
+      <c r="K34" s="34">
         <f t="shared" ref="K34" si="17">K30-K32</f>
         <v>-0.19999999999999996</v>
       </c>
-      <c r="M34" s="36"/>
-      <c r="N34" s="37">
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="35">
         <f>AVERAGE(D34:K34)</f>
         <v>-0.15499999999999917</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B37" s="35" t="s">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="33" t="s">
         <v>75</v>
       </c>
       <c r="D37">
@@ -6003,8 +6062,8 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="35" t="s">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="33" t="s">
         <v>86</v>
       </c>
       <c r="D38">
@@ -6032,8 +6091,8 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B39" s="35" t="s">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="33" t="s">
         <v>76</v>
       </c>
       <c r="D39">
@@ -6061,86 +6120,90 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B40" s="35" t="s">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="34">
         <f t="shared" ref="D40:J40" si="18">D38-D37</f>
         <v>0.61000000000000032</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="34">
         <f t="shared" si="18"/>
         <v>0.50999999999999979</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40" s="34">
         <f t="shared" si="18"/>
         <v>0.50999999999999979</v>
       </c>
-      <c r="G40" s="36">
+      <c r="G40" s="34">
         <f t="shared" si="18"/>
         <v>0.58999999999999986</v>
       </c>
-      <c r="H40" s="36">
+      <c r="H40" s="34">
         <f t="shared" si="18"/>
         <v>0.41999999999999993</v>
       </c>
-      <c r="I40" s="36">
+      <c r="I40" s="34">
         <f t="shared" si="18"/>
         <v>0.67000000000000171</v>
       </c>
-      <c r="J40" s="36">
+      <c r="J40" s="34">
         <f t="shared" si="18"/>
         <v>0.54999999999999893</v>
       </c>
-      <c r="K40" s="36">
+      <c r="K40" s="34">
         <f t="shared" ref="K40" si="19">K38-K37</f>
         <v>0.42999999999999994</v>
       </c>
-      <c r="M40" s="37">
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="O40" s="35">
         <f>AVERAGE(D40:K40)</f>
         <v>0.53625</v>
       </c>
-      <c r="N40" s="36"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="35" t="s">
+      <c r="P40" s="34"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="34">
         <f t="shared" ref="D41:J41" si="20">D37-D39</f>
         <v>-0.32000000000000028</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="34">
         <f t="shared" si="20"/>
         <v>-0.23000000000000043</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F41" s="34">
         <f t="shared" si="20"/>
         <v>-0.20999999999999996</v>
       </c>
-      <c r="G41" s="36">
+      <c r="G41" s="34">
         <f t="shared" si="20"/>
         <v>-0.17999999999999972</v>
       </c>
-      <c r="H41" s="36">
+      <c r="H41" s="34">
         <f t="shared" si="20"/>
         <v>-0.14000000000000057</v>
       </c>
-      <c r="I41" s="36">
+      <c r="I41" s="34">
         <f t="shared" si="20"/>
         <v>-0.17000000000000171</v>
       </c>
-      <c r="J41" s="36">
+      <c r="J41" s="34">
         <f t="shared" si="20"/>
         <v>-0.13999999999999879</v>
       </c>
-      <c r="K41" s="36">
+      <c r="K41" s="34">
         <f t="shared" ref="K41" si="21">K37-K39</f>
         <v>-0.12999999999999989</v>
       </c>
-      <c r="M41" s="36"/>
-      <c r="N41" s="37">
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="35">
         <f>AVERAGE(D41:K41)</f>
         <v>-0.19000000000000017</v>
       </c>
@@ -6155,16 +6218,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756669C5-6D31-44B8-AA06-7A631D93EE50}">
   <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.44921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>2014</v>
       </c>
@@ -6188,364 +6251,364 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4">
         <f>37489/296356</f>
         <v>0.12649988527311748</v>
       </c>
-      <c r="J2" s="31">
+      <c r="J2" s="29">
         <f>AVERAGE(C2:H2)</f>
         <v>0.12649988527311748</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <f>87602/47464893</f>
         <v>1.8456167171808436E-3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f>568633/61443719</f>
         <v>9.2545342185423388E-3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <f>1476432/105359240</f>
         <v>1.4013312928225375E-2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f>895025/81673540</f>
         <v>1.0958567487095576E-2</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <f>1522926/110267237</f>
         <v>1.3811228443132206E-2</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <f>1667965/126621109</f>
         <v>1.3172882572052026E-2</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="29">
         <f t="shared" ref="J3:J13" si="0">AVERAGE(C3:H3)</f>
         <v>1.050935706103806E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="J4" s="31">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="29">
         <f>VWRL!L13</f>
         <v>0.11606929673928755</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <f>276998/3363386</f>
         <v>8.2356886780167365E-2</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f>993993/9974527</f>
         <v>9.9653146459977499E-2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f>1526539/14343861</f>
         <v>0.10642455333330406</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f>1933590/18057679</f>
         <v>0.10707854536565857</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f>2658425/25206083</f>
         <v>0.10546759684953827</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <f>3332714/30787587</f>
         <v>0.10824862630514044</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31">
+      <c r="I5" s="28"/>
+      <c r="J5" s="29">
         <f t="shared" si="0"/>
         <v>0.10153822584896437</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <f>38753/1151217</f>
         <v>3.3662637018042646E-2</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f>95674/2910412</f>
         <v>3.2873009044767545E-2</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f>135521/3697627</f>
         <v>3.6650803339547226E-2</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f>217184/6020134</f>
         <v>3.6076273385276809E-2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f>396984/12310610</f>
         <v>3.2247305373169971E-2</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f>725905/14080736</f>
         <v>5.1553058021967031E-2</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31">
+      <c r="I6" s="28"/>
+      <c r="J6" s="29">
         <f t="shared" si="0"/>
         <v>3.7177181030461866E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <f>449779/6453840</f>
         <v>6.9691687429499341E-2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f>98042/1768698</f>
         <v>5.5431735660921196E-2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f>1214196/16699948</f>
         <v>7.2706573697115709E-2</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f>2137859/28612288</f>
         <v>7.4718211979412488E-2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f>4211322/55451908</f>
         <v>7.5945484148173939E-2</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f>4497447/63355725</f>
         <v>7.0987223333013716E-2</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31">
+      <c r="I7" s="28"/>
+      <c r="J7" s="29">
         <f t="shared" si="0"/>
         <v>6.9913486041356068E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
         <f>146930/1398033</f>
         <v>0.10509766221541265</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f>721453/6516531</f>
         <v>0.1107112050874921</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f>1277534/12552233</f>
         <v>0.10177742876506515</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f>3575141/33665380</f>
         <v>0.1061963655244646</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f>3893883/38411323</f>
         <v>0.10137331119784652</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="29">
         <f t="shared" si="0"/>
         <v>0.10503119455805621</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
         <f>66149/572890</f>
         <v>0.11546544711899318</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f>156844/1316266</f>
         <v>0.11915828563527434</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f>255100/2129637</f>
         <v>0.1197856723939338</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <f>487837/3930173</f>
         <v>0.12412608808823429</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <f>877262/7446153</f>
         <v>0.11781412495821668</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31">
+      <c r="I9" s="28"/>
+      <c r="J9" s="29">
         <f t="shared" si="0"/>
         <v>0.11926992363893045</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <f>298586/3325881</f>
         <v>8.9776513350898604E-2</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f>1274164/13386831</f>
         <v>9.5180405280383379E-2</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <f>1706810/17405209</f>
         <v>9.8063171778057942E-2</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <f>3013440/29020960</f>
         <v>0.10383667528572453</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <f>4856073/44723633</f>
         <v>0.10857957357802306</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <f>5576288/55691122</f>
         <v>0.10012884998079227</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31">
+      <c r="I10" s="28"/>
+      <c r="J10" s="29">
         <f t="shared" si="0"/>
         <v>9.9260864875646629E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <f>160529/1233458</f>
         <v>0.1301454934014778</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f>1532098/10217727</f>
         <v>0.14994509052747251</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <f>2439137/16266986</f>
         <v>0.14994400314846279</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <f>2650584/17759481</f>
         <v>0.14924895609280475</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <f>5929674/39527484</f>
         <v>0.15001394978744409</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <f>6964518/46429139</f>
         <v>0.15000316934587135</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31">
+      <c r="I11" s="28"/>
+      <c r="J11" s="29">
         <f t="shared" si="0"/>
         <v>0.14655011038392221</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
         <f>39362/256875</f>
         <v>0.15323406326034064</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <f>65794/408533</f>
         <v>0.16104941338888168</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <f>133040/825605</f>
         <v>0.16114243494164884</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <f>433061/2477912</f>
         <v>0.17476851478180017</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <f>689318/4448721</f>
         <v>0.15494745568445403</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31">
+      <c r="I12" s="28"/>
+      <c r="J12" s="29">
         <f t="shared" si="0"/>
         <v>0.16102837641142506</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <f>7721652/52371805</f>
         <v>0.14743910392242543</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f>27863194/196059743</f>
         <v>0.14211583455967297</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <f>41287532/271884091</f>
         <v>0.15185710884422435</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f>52477342/354919338</f>
         <v>0.14785709422234974</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <f>62709293/420900920</f>
         <v>0.1489882535775878</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <f>79389011/484099232</f>
         <v>0.16399325954724919</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31">
+      <c r="I13" s="28"/>
+      <c r="J13" s="29">
         <f t="shared" si="0"/>
         <v>0.15037510911225158</v>
       </c>
@@ -6574,12 +6637,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>2017</v>
       </c>
@@ -6596,7 +6659,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
@@ -6605,102 +6668,102 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>0.05</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>0.05</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>0.06</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>0.08</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <f>100%-C3</f>
         <v>0.95</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f t="shared" ref="D4:F4" si="0">100%-D3</f>
         <v>0.95</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f t="shared" si="0"/>
         <v>0.94</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f t="shared" ref="G4" si="1">100%-G3</f>
         <v>0.92</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>0.05</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>0.05</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <f>100%-C7</f>
         <v>0.95</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f t="shared" ref="D8" si="2">100%-D7</f>
         <v>0.95</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <f t="shared" ref="E8:G8" si="3">100%-E7</f>
         <v>0.92999999999999994</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <f t="shared" si="3"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f t="shared" si="3"/>
         <v>0.92</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>66</v>
       </c>

--- a/Vanguard EU/Vanguard-ETFs-KostenBepaling.xlsx
+++ b/Vanguard EU/Vanguard-ETFs-KostenBepaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard EU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="731" documentId="13_ncr:1_{383DE9F1-B669-4070-96E2-664D98CFDC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A09E681-63BE-4872-B1C8-53D1CBDF2DBA}"/>
+  <xr:revisionPtr revIDLastSave="739" documentId="13_ncr:1_{383DE9F1-B669-4070-96E2-664D98CFDC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D82275AD-C0A6-447E-8ECC-29D2998131D9}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VWRL" sheetId="13" r:id="rId1"/>
@@ -479,11 +479,11 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Komma" xfId="2" builtinId="3"/>
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Valuta" xfId="3" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5011,8 +5011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55271D4-8CAB-4791-86A4-56A1D92A09CA}">
   <dimension ref="B1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5051,7 +5051,9 @@
       <c r="L1" s="25">
         <v>2022</v>
       </c>
-      <c r="M1" s="25"/>
+      <c r="M1" s="25">
+        <v>2023</v>
+      </c>
       <c r="O1" s="1" t="s">
         <v>25</v>
       </c>
@@ -5128,9 +5130,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="L3" s="23"/>
-      <c r="M3" s="23">
-        <v>-17.7</v>
-      </c>
+      <c r="M3" s="23"/>
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
@@ -5308,7 +5308,9 @@
       <c r="L9" s="22">
         <v>-18.05</v>
       </c>
-      <c r="M9" s="22"/>
+      <c r="M9" s="22">
+        <v>23.84</v>
+      </c>
       <c r="N9" s="23"/>
       <c r="O9" s="32"/>
       <c r="P9" s="32"/>
@@ -5343,7 +5345,9 @@
       <c r="L10" s="22">
         <v>-17.8</v>
       </c>
-      <c r="M10" s="22"/>
+      <c r="M10" s="22">
+        <v>24.2</v>
+      </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
       <c r="P10" s="32"/>
@@ -5378,7 +5382,9 @@
       <c r="L11" s="22">
         <v>-18.149999999999999</v>
       </c>
-      <c r="M11" s="22"/>
+      <c r="M11" s="22">
+        <v>23.61</v>
+      </c>
       <c r="N11" s="23"/>
       <c r="O11" s="32"/>
       <c r="P11" s="32"/>
@@ -5414,14 +5420,17 @@
         <v>0.48999999999999844</v>
       </c>
       <c r="K12" s="22">
-        <f t="shared" ref="K12:L12" si="5">K10-K9</f>
+        <f t="shared" ref="K12:M12" si="5">K10-K9</f>
         <v>0.41000000000000014</v>
       </c>
       <c r="L12" s="22">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="M12" s="22"/>
+      <c r="M12" s="22">
+        <f t="shared" si="5"/>
+        <v>0.35999999999999943</v>
+      </c>
       <c r="N12" s="23"/>
       <c r="O12" s="32">
         <f>AVERAGE(E12:K12)</f>
@@ -5460,14 +5469,17 @@
         <v>0.10000000000000142</v>
       </c>
       <c r="K13" s="22">
-        <f t="shared" ref="K13:L13" si="7">K9-K11</f>
+        <f t="shared" ref="K13:M13" si="7">K9-K11</f>
         <v>0.11999999999999744</v>
       </c>
       <c r="L13" s="22">
         <f t="shared" si="7"/>
         <v>9.9999999999997868E-2</v>
       </c>
-      <c r="M13" s="22"/>
+      <c r="M13" s="22">
+        <f t="shared" si="7"/>
+        <v>0.23000000000000043</v>
+      </c>
       <c r="N13" s="23"/>
       <c r="O13" s="32"/>
       <c r="P13" s="32">
